--- a/data.xlsx
+++ b/data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iyo\Desktop\NJU\24大创\25.03\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\24319\OneDrive\Desktop\SALON\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{69FCE0D9-A021-4C85-B7E2-6F85A0E06327}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C7AC7B0-6E98-43EB-8A4C-75B379822BBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6090" yWindow="4470" windowWidth="19850" windowHeight="10120" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13200" firstSheet="4" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RQ1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,18 @@
     <sheet name="Different integrating method" sheetId="7" r:id="rId6"/>
     <sheet name="few-shot" sheetId="8" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -302,6 +313,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>ub</t>
@@ -663,7 +675,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="155">
+  <cellXfs count="156">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -907,27 +919,27 @@
     <xf numFmtId="10" fontId="0" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -940,6 +952,36 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -952,42 +994,42 @@
     <xf numFmtId="0" fontId="12" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -997,73 +1039,97 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="10" fontId="4" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="17" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="8" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="10" fontId="4" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="4" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="4" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="4" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="4" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="4" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="4" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="4" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="4" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="4" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="4" fillId="8" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1075,58 +1141,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="17" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="15" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1416,13 +1431,13 @@
       <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.69140625" defaultRowHeight="15.5"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="39.4609375" customWidth="1"/>
+    <col min="2" max="2" width="39.46484375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="81" t="s">
+      <c r="A1" s="86" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="88" t="s">
@@ -1434,24 +1449,24 @@
       <c r="D1" s="90" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="81" t="s">
+      <c r="E1" s="86" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="81"/>
-      <c r="G1" s="81"/>
-      <c r="H1" s="81" t="s">
+      <c r="F1" s="86"/>
+      <c r="G1" s="86"/>
+      <c r="H1" s="86" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="81"/>
-      <c r="J1" s="81"/>
-      <c r="K1" s="81" t="s">
+      <c r="I1" s="86"/>
+      <c r="J1" s="86"/>
+      <c r="K1" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="L1" s="81"/>
-      <c r="M1" s="81"/>
+      <c r="L1" s="86"/>
+      <c r="M1" s="86"/>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="81"/>
+      <c r="A2" s="86"/>
       <c r="B2" s="89"/>
       <c r="C2" s="91"/>
       <c r="D2" s="91"/>
@@ -1484,7 +1499,7 @@
       </c>
     </row>
     <row r="3" spans="1:13">
-      <c r="A3" s="82" t="s">
+      <c r="A3" s="87" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="51" t="s">
@@ -1526,7 +1541,7 @@
       </c>
     </row>
     <row r="4" spans="1:13">
-      <c r="A4" s="82"/>
+      <c r="A4" s="87"/>
       <c r="B4" s="51" t="s">
         <v>12</v>
       </c>
@@ -1535,7 +1550,7 @@
       </c>
       <c r="D4" s="16">
         <f t="shared" ref="D4" si="0">(G4+J4+M4)/3</f>
-        <v>0.85137292407893495</v>
+        <v>0.85137292407893461</v>
       </c>
       <c r="E4" s="16">
         <v>0.884848484848484</v>
@@ -1566,7 +1581,7 @@
       </c>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5" s="82"/>
+      <c r="A5" s="87"/>
       <c r="B5" s="51" t="s">
         <v>13</v>
       </c>
@@ -1605,7 +1620,7 @@
       </c>
     </row>
     <row r="6" spans="1:13">
-      <c r="A6" s="82"/>
+      <c r="A6" s="87"/>
       <c r="B6" s="51" t="s">
         <v>14</v>
       </c>
@@ -1644,7 +1659,7 @@
       </c>
     </row>
     <row r="7" spans="1:13">
-      <c r="A7" s="82"/>
+      <c r="A7" s="87"/>
       <c r="B7" s="2" t="s">
         <v>15</v>
       </c>
@@ -1683,7 +1698,7 @@
       </c>
     </row>
     <row r="8" spans="1:13">
-      <c r="A8" s="82"/>
+      <c r="A8" s="87"/>
       <c r="B8" s="2" t="s">
         <v>16</v>
       </c>
@@ -1722,7 +1737,7 @@
       </c>
     </row>
     <row r="9" spans="1:13">
-      <c r="A9" s="82"/>
+      <c r="A9" s="87"/>
       <c r="B9" s="2" t="s">
         <v>17</v>
       </c>
@@ -1761,7 +1776,7 @@
       </c>
     </row>
     <row r="10" spans="1:13">
-      <c r="A10" s="83" t="s">
+      <c r="A10" s="81" t="s">
         <v>18</v>
       </c>
       <c r="B10" s="56" t="s">
@@ -1772,7 +1787,7 @@
       </c>
       <c r="D10" s="20">
         <f t="shared" ref="D10:D11" si="1">(G10+J10+M10)/3</f>
-        <v>0.36538762364849298</v>
+        <v>0.36538762364849314</v>
       </c>
       <c r="E10" s="20">
         <v>0.16666666666666599</v>
@@ -1803,7 +1818,7 @@
       </c>
     </row>
     <row r="11" spans="1:13">
-      <c r="A11" s="83"/>
+      <c r="A11" s="81"/>
       <c r="B11" s="56" t="s">
         <v>12</v>
       </c>
@@ -1812,7 +1827,7 @@
       </c>
       <c r="D11" s="20">
         <f t="shared" si="1"/>
-        <v>0.46368391693768202</v>
+        <v>0.46368391693768168</v>
       </c>
       <c r="E11" s="20">
         <v>0.2</v>
@@ -1843,7 +1858,7 @@
       </c>
     </row>
     <row r="12" spans="1:13">
-      <c r="A12" s="83"/>
+      <c r="A12" s="81"/>
       <c r="B12" s="56" t="s">
         <v>13</v>
       </c>
@@ -1882,7 +1897,7 @@
       </c>
     </row>
     <row r="13" spans="1:13">
-      <c r="A13" s="83"/>
+      <c r="A13" s="81"/>
       <c r="B13" s="56" t="s">
         <v>14</v>
       </c>
@@ -1921,7 +1936,7 @@
       </c>
     </row>
     <row r="14" spans="1:13">
-      <c r="A14" s="83"/>
+      <c r="A14" s="81"/>
       <c r="B14" s="4" t="s">
         <v>15</v>
       </c>
@@ -1960,7 +1975,7 @@
       </c>
     </row>
     <row r="15" spans="1:13">
-      <c r="A15" s="83"/>
+      <c r="A15" s="81"/>
       <c r="B15" s="4" t="s">
         <v>16</v>
       </c>
@@ -1999,7 +2014,7 @@
       </c>
     </row>
     <row r="16" spans="1:13">
-      <c r="A16" s="83"/>
+      <c r="A16" s="81"/>
       <c r="B16" s="4" t="s">
         <v>17</v>
       </c>
@@ -2038,7 +2053,7 @@
       </c>
     </row>
     <row r="17" spans="1:13">
-      <c r="A17" s="84" t="s">
+      <c r="A17" s="82" t="s">
         <v>19</v>
       </c>
       <c r="B17" s="61" t="s">
@@ -2049,7 +2064,7 @@
       </c>
       <c r="D17" s="23">
         <f t="shared" ref="D17:D18" si="2">(G17+J17+M17)/3</f>
-        <v>0.59161353858912502</v>
+        <v>0.59161353858912535</v>
       </c>
       <c r="E17" s="23">
         <v>0.93333333333333302</v>
@@ -2080,7 +2095,7 @@
       </c>
     </row>
     <row r="18" spans="1:13">
-      <c r="A18" s="84"/>
+      <c r="A18" s="82"/>
       <c r="B18" s="61" t="s">
         <v>12</v>
       </c>
@@ -2120,7 +2135,7 @@
       </c>
     </row>
     <row r="19" spans="1:13">
-      <c r="A19" s="84"/>
+      <c r="A19" s="82"/>
       <c r="B19" s="61" t="s">
         <v>13</v>
       </c>
@@ -2159,7 +2174,7 @@
       </c>
     </row>
     <row r="20" spans="1:13">
-      <c r="A20" s="84"/>
+      <c r="A20" s="82"/>
       <c r="B20" s="61" t="s">
         <v>14</v>
       </c>
@@ -2198,7 +2213,7 @@
       </c>
     </row>
     <row r="21" spans="1:13">
-      <c r="A21" s="84"/>
+      <c r="A21" s="82"/>
       <c r="B21" s="6" t="s">
         <v>15</v>
       </c>
@@ -2237,7 +2252,7 @@
       </c>
     </row>
     <row r="22" spans="1:13">
-      <c r="A22" s="84"/>
+      <c r="A22" s="82"/>
       <c r="B22" s="6" t="s">
         <v>16</v>
       </c>
@@ -2276,7 +2291,7 @@
       </c>
     </row>
     <row r="23" spans="1:13">
-      <c r="A23" s="84"/>
+      <c r="A23" s="82"/>
       <c r="B23" s="6" t="s">
         <v>17</v>
       </c>
@@ -2315,7 +2330,7 @@
       </c>
     </row>
     <row r="24" spans="1:13">
-      <c r="A24" s="85" t="s">
+      <c r="A24" s="83" t="s">
         <v>20</v>
       </c>
       <c r="B24" s="67" t="s">
@@ -2326,7 +2341,7 @@
       </c>
       <c r="D24" s="68">
         <f t="shared" ref="D24:D25" si="3">(G24+J24+M24)/3</f>
-        <v>0.49285714285714299</v>
+        <v>0.49285714285714266</v>
       </c>
       <c r="E24" s="68">
         <v>0.76190476190476097</v>
@@ -2357,7 +2372,7 @@
       </c>
     </row>
     <row r="25" spans="1:13">
-      <c r="A25" s="85"/>
+      <c r="A25" s="83"/>
       <c r="B25" s="67" t="s">
         <v>12</v>
       </c>
@@ -2366,7 +2381,7 @@
       </c>
       <c r="D25" s="68">
         <f t="shared" si="3"/>
-        <v>0.44875107665805303</v>
+        <v>0.44875107665805297</v>
       </c>
       <c r="E25" s="68">
         <v>0.70833333333333304</v>
@@ -2397,7 +2412,7 @@
       </c>
     </row>
     <row r="26" spans="1:13">
-      <c r="A26" s="85"/>
+      <c r="A26" s="83"/>
       <c r="B26" s="67" t="s">
         <v>13</v>
       </c>
@@ -2436,7 +2451,7 @@
       </c>
     </row>
     <row r="27" spans="1:13">
-      <c r="A27" s="85"/>
+      <c r="A27" s="83"/>
       <c r="B27" s="67" t="s">
         <v>14</v>
       </c>
@@ -2475,7 +2490,7 @@
       </c>
     </row>
     <row r="28" spans="1:13">
-      <c r="A28" s="85"/>
+      <c r="A28" s="83"/>
       <c r="B28" s="8" t="s">
         <v>15</v>
       </c>
@@ -2514,7 +2529,7 @@
       </c>
     </row>
     <row r="29" spans="1:13">
-      <c r="A29" s="85"/>
+      <c r="A29" s="83"/>
       <c r="B29" s="8" t="s">
         <v>16</v>
       </c>
@@ -2553,7 +2568,7 @@
       </c>
     </row>
     <row r="30" spans="1:13">
-      <c r="A30" s="85"/>
+      <c r="A30" s="83"/>
       <c r="B30" s="8" t="s">
         <v>17</v>
       </c>
@@ -2592,7 +2607,7 @@
       </c>
     </row>
     <row r="31" spans="1:13">
-      <c r="A31" s="86" t="s">
+      <c r="A31" s="84" t="s">
         <v>21</v>
       </c>
       <c r="B31" s="73" t="s">
@@ -2633,7 +2648,7 @@
       </c>
     </row>
     <row r="32" spans="1:13">
-      <c r="A32" s="86"/>
+      <c r="A32" s="84"/>
       <c r="B32" s="73" t="s">
         <v>12</v>
       </c>
@@ -2642,7 +2657,7 @@
       </c>
       <c r="D32" s="26">
         <f t="shared" ref="D32" si="4">(G32+J32+M32)/3</f>
-        <v>0.64016666666666699</v>
+        <v>0.64016666666666666</v>
       </c>
       <c r="E32" s="26">
         <v>0.66180000000000005</v>
@@ -2673,7 +2688,7 @@
       </c>
     </row>
     <row r="33" spans="1:13">
-      <c r="A33" s="86"/>
+      <c r="A33" s="84"/>
       <c r="B33" s="73" t="s">
         <v>13</v>
       </c>
@@ -2712,7 +2727,7 @@
       </c>
     </row>
     <row r="34" spans="1:13">
-      <c r="A34" s="86"/>
+      <c r="A34" s="84"/>
       <c r="B34" s="73" t="s">
         <v>14</v>
       </c>
@@ -2751,7 +2766,7 @@
       </c>
     </row>
     <row r="35" spans="1:13">
-      <c r="A35" s="86"/>
+      <c r="A35" s="84"/>
       <c r="B35" s="10" t="s">
         <v>15</v>
       </c>
@@ -2790,7 +2805,7 @@
       </c>
     </row>
     <row r="36" spans="1:13">
-      <c r="A36" s="86"/>
+      <c r="A36" s="84"/>
       <c r="B36" s="10" t="s">
         <v>16</v>
       </c>
@@ -2829,7 +2844,7 @@
       </c>
     </row>
     <row r="37" spans="1:13">
-      <c r="A37" s="86"/>
+      <c r="A37" s="84"/>
       <c r="B37" s="10" t="s">
         <v>17</v>
       </c>
@@ -2868,7 +2883,7 @@
       </c>
     </row>
     <row r="38" spans="1:13">
-      <c r="A38" s="87" t="s">
+      <c r="A38" s="85" t="s">
         <v>22</v>
       </c>
       <c r="B38" s="78" t="s">
@@ -2884,23 +2899,23 @@
       </c>
       <c r="E38" s="13">
         <f t="shared" si="5"/>
-        <v>0.71621068211068195</v>
+        <v>0.71621068211068162</v>
       </c>
       <c r="F38" s="13">
         <f t="shared" si="5"/>
-        <v>0.68922994082699796</v>
+        <v>0.68922994082699829</v>
       </c>
       <c r="G38" s="13">
         <f t="shared" si="5"/>
-        <v>0.699234694521088</v>
+        <v>0.69923469452108789</v>
       </c>
       <c r="H38" s="13">
         <f t="shared" si="5"/>
-        <v>0.52436654059390897</v>
+        <v>0.52436654059390864</v>
       </c>
       <c r="I38" s="13">
         <f t="shared" si="5"/>
-        <v>0.64117075630252096</v>
+        <v>0.64117075630252085</v>
       </c>
       <c r="J38" s="13">
         <f t="shared" si="5"/>
@@ -2908,25 +2923,25 @@
       </c>
       <c r="K38" s="13">
         <f t="shared" si="5"/>
-        <v>0.60168881720430101</v>
+        <v>0.60168881720430079</v>
       </c>
       <c r="L38" s="13">
         <f t="shared" si="5"/>
-        <v>0.49197200854700801</v>
+        <v>0.49197200854700823</v>
       </c>
       <c r="M38" s="13">
         <f t="shared" si="5"/>
-        <v>0.48969121410869199</v>
+        <v>0.48969121410869221</v>
       </c>
     </row>
     <row r="39" spans="1:13">
-      <c r="A39" s="87"/>
+      <c r="A39" s="85"/>
       <c r="B39" s="78" t="s">
         <v>12</v>
       </c>
       <c r="C39" s="13">
         <f t="shared" ref="C39:M39" si="6">(C4+C11+C18+C25+C32)/5</f>
-        <v>0.733262154421223</v>
+        <v>0.73326215442122344</v>
       </c>
       <c r="D39" s="13">
         <f t="shared" si="6"/>
@@ -2934,53 +2949,53 @@
       </c>
       <c r="E39" s="13">
         <f t="shared" si="6"/>
-        <v>0.68385350649350596</v>
+        <v>0.68385350649350618</v>
       </c>
       <c r="F39" s="13">
         <f t="shared" si="6"/>
-        <v>0.75985316894462196</v>
+        <v>0.75985316894462174</v>
       </c>
       <c r="G39" s="13">
         <f t="shared" si="6"/>
-        <v>0.71604362653203701</v>
+        <v>0.71604362653203713</v>
       </c>
       <c r="H39" s="13">
         <f t="shared" si="6"/>
-        <v>0.535653602506587</v>
+        <v>0.53565360250658656</v>
       </c>
       <c r="I39" s="13">
         <f t="shared" si="6"/>
-        <v>0.49369843137254898</v>
+        <v>0.49369843137254882</v>
       </c>
       <c r="J39" s="13">
         <f t="shared" si="6"/>
-        <v>0.50075772008768904</v>
+        <v>0.5007577200876886</v>
       </c>
       <c r="K39" s="13">
         <f t="shared" si="6"/>
-        <v>0.65228992125984198</v>
+        <v>0.65228992125984242</v>
       </c>
       <c r="L39" s="13">
         <f t="shared" si="6"/>
-        <v>0.57082551282051297</v>
+        <v>0.57082551282051264</v>
       </c>
       <c r="M39" s="13">
         <f t="shared" si="6"/>
-        <v>0.58850841562922995</v>
+        <v>0.58850841562923017</v>
       </c>
     </row>
     <row r="40" spans="1:13">
-      <c r="A40" s="87"/>
+      <c r="A40" s="85"/>
       <c r="B40" s="78" t="s">
         <v>13</v>
       </c>
       <c r="C40" s="13">
         <f t="shared" ref="C40:M40" si="7">(C5+C12+C19+C26+C33)/5</f>
-        <v>0.67113999999999996</v>
+        <v>0.67114000000000007</v>
       </c>
       <c r="D40" s="13">
         <f t="shared" si="7"/>
-        <v>0.55183333333333295</v>
+        <v>0.55183333333333329</v>
       </c>
       <c r="E40" s="13">
         <f t="shared" si="7"/>
@@ -2988,7 +3003,7 @@
       </c>
       <c r="F40" s="13">
         <f t="shared" si="7"/>
-        <v>0.69001999999999997</v>
+        <v>0.69002000000000008</v>
       </c>
       <c r="G40" s="13">
         <f t="shared" si="7"/>
@@ -3016,11 +3031,11 @@
       </c>
       <c r="M40" s="13">
         <f t="shared" si="7"/>
-        <v>0.44235999999999998</v>
+        <v>0.44236000000000003</v>
       </c>
     </row>
     <row r="41" spans="1:13">
-      <c r="A41" s="87"/>
+      <c r="A41" s="85"/>
       <c r="B41" s="78" t="s">
         <v>14</v>
       </c>
@@ -3030,7 +3045,7 @@
       </c>
       <c r="D41" s="13">
         <f t="shared" si="8"/>
-        <v>0.65976266666666705</v>
+        <v>0.65976266666666683</v>
       </c>
       <c r="E41" s="13">
         <f t="shared" si="8"/>
@@ -3070,37 +3085,37 @@
       </c>
     </row>
     <row r="42" spans="1:13">
-      <c r="A42" s="87"/>
+      <c r="A42" s="85"/>
       <c r="B42" s="12" t="s">
         <v>15</v>
       </c>
       <c r="C42" s="13">
         <f t="shared" ref="C42:M42" si="9">(C7+C14+C21+C28+C35)/5</f>
-        <v>0.74341963026206404</v>
+        <v>0.74341963026206426</v>
       </c>
       <c r="D42" s="13">
         <f t="shared" si="9"/>
-        <v>0.64983425283637397</v>
+        <v>0.64983425283637408</v>
       </c>
       <c r="E42" s="13">
         <f t="shared" si="9"/>
-        <v>0.77604884513441896</v>
+        <v>0.77604884513441885</v>
       </c>
       <c r="F42" s="13">
         <f t="shared" si="9"/>
-        <v>0.72260385842642605</v>
+        <v>0.72260385842642649</v>
       </c>
       <c r="G42" s="13">
         <f t="shared" si="9"/>
-        <v>0.74367395606267295</v>
+        <v>0.74367395606267261</v>
       </c>
       <c r="H42" s="13">
         <f t="shared" si="9"/>
-        <v>0.47449435257974099</v>
+        <v>0.47449435257974121</v>
       </c>
       <c r="I42" s="13">
         <f t="shared" si="9"/>
-        <v>0.58960784313725501</v>
+        <v>0.58960784313725456</v>
       </c>
       <c r="J42" s="13">
         <f t="shared" si="9"/>
@@ -3108,57 +3123,57 @@
       </c>
       <c r="K42" s="13">
         <f t="shared" si="9"/>
-        <v>0.84271529124470301</v>
+        <v>0.84271529124470257</v>
       </c>
       <c r="L42" s="13">
         <f t="shared" si="9"/>
-        <v>0.60902815046710401</v>
+        <v>0.60902815046710357</v>
       </c>
       <c r="M42" s="13">
         <f t="shared" si="9"/>
-        <v>0.68585220335220298</v>
+        <v>0.6858522033522032</v>
       </c>
     </row>
     <row r="43" spans="1:13">
-      <c r="A43" s="87"/>
+      <c r="A43" s="85"/>
       <c r="B43" s="12" t="s">
         <v>16</v>
       </c>
       <c r="C43" s="13">
         <f t="shared" ref="C43:M43" si="10">(C8+C15+C22+C29+C36)/5</f>
-        <v>0.77257979866742499</v>
+        <v>0.77257979866742521</v>
       </c>
       <c r="D43" s="13">
         <f t="shared" si="10"/>
-        <v>0.68391920113638605</v>
+        <v>0.68391920113638616</v>
       </c>
       <c r="E43" s="13">
         <f t="shared" si="10"/>
-        <v>0.77078575878885403</v>
+        <v>0.77078575878885436</v>
       </c>
       <c r="F43" s="13">
         <f t="shared" si="10"/>
-        <v>0.80490652308203203</v>
+        <v>0.80490652308203248</v>
       </c>
       <c r="G43" s="13">
         <f t="shared" si="10"/>
-        <v>0.78689268054093697</v>
+        <v>0.78689268054093742</v>
       </c>
       <c r="H43" s="13">
         <f t="shared" si="10"/>
-        <v>0.52638095238095195</v>
+        <v>0.52638095238095206</v>
       </c>
       <c r="I43" s="13">
         <f t="shared" si="10"/>
-        <v>0.52313725490195995</v>
+        <v>0.52313725490196039</v>
       </c>
       <c r="J43" s="13">
         <f t="shared" si="10"/>
-        <v>0.52266047171219598</v>
+        <v>0.52266047171219554</v>
       </c>
       <c r="K43" s="13">
         <f t="shared" si="10"/>
-        <v>0.78289177489177497</v>
+        <v>0.78289177489177464</v>
       </c>
       <c r="L43" s="13">
         <f t="shared" si="10"/>
@@ -3166,66 +3181,61 @@
       </c>
       <c r="M43" s="13">
         <f t="shared" si="10"/>
-        <v>0.74220445115602596</v>
+        <v>0.74220445115602574</v>
       </c>
     </row>
     <row r="44" spans="1:13">
-      <c r="A44" s="87"/>
+      <c r="A44" s="85"/>
       <c r="B44" s="12" t="s">
         <v>17</v>
       </c>
       <c r="C44" s="13">
         <f t="shared" ref="C44:M44" si="11">(C9+C16+C23+C30+C37)/5</f>
-        <v>0.81071196015167601</v>
+        <v>0.81071196015167557</v>
       </c>
       <c r="D44" s="13">
         <f t="shared" si="11"/>
-        <v>0.71823208290021301</v>
+        <v>0.71823208290021268</v>
       </c>
       <c r="E44" s="13">
         <f t="shared" si="11"/>
-        <v>0.77564916078073898</v>
+        <v>0.7756491607807392</v>
       </c>
       <c r="F44" s="13">
         <f t="shared" si="11"/>
-        <v>0.79062342885872305</v>
+        <v>0.79062342885872272</v>
       </c>
       <c r="G44" s="13">
         <f t="shared" si="11"/>
-        <v>0.77719707571516805</v>
+        <v>0.77719707571516827</v>
       </c>
       <c r="H44" s="13">
         <f t="shared" si="11"/>
-        <v>0.609477271003943</v>
+        <v>0.60947727100394278</v>
       </c>
       <c r="I44" s="13">
         <f t="shared" si="11"/>
-        <v>0.64282913165266098</v>
+        <v>0.64282913165266076</v>
       </c>
       <c r="J44" s="13">
         <f t="shared" si="11"/>
-        <v>0.62382892069034002</v>
+        <v>0.62382892069033991</v>
       </c>
       <c r="K44" s="13">
         <f t="shared" si="11"/>
-        <v>0.87359357060849596</v>
+        <v>0.87359357060849552</v>
       </c>
       <c r="L44" s="13">
         <f t="shared" si="11"/>
-        <v>0.67548213575829796</v>
+        <v>0.67548213575829841</v>
       </c>
       <c r="M44" s="13">
         <f t="shared" si="11"/>
-        <v>0.75367025229512996</v>
+        <v>0.75367025229512963</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A10:A16"/>
-    <mergeCell ref="A17:A23"/>
-    <mergeCell ref="A24:A30"/>
-    <mergeCell ref="A31:A37"/>
-    <mergeCell ref="A38:A44"/>
     <mergeCell ref="E1:G1"/>
     <mergeCell ref="H1:J1"/>
     <mergeCell ref="K1:M1"/>
@@ -3234,6 +3244,11 @@
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="D1:D2"/>
+    <mergeCell ref="A10:A16"/>
+    <mergeCell ref="A17:A23"/>
+    <mergeCell ref="A24:A30"/>
+    <mergeCell ref="A31:A37"/>
+    <mergeCell ref="A38:A44"/>
   </mergeCells>
   <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3248,14 +3263,14 @@
       <selection activeCell="N162" sqref="N162"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.69140625" defaultRowHeight="17.5"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="13.765625" customWidth="1"/>
-    <col min="2" max="2" width="45.15234375" style="47" customWidth="1"/>
+    <col min="1" max="1" width="13.73046875" customWidth="1"/>
+    <col min="2" max="2" width="45.1328125" style="47" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15.5">
-      <c r="A1" s="81" t="s">
+    <row r="1" spans="1:13" ht="15">
+      <c r="A1" s="86" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="88" t="s">
@@ -3267,24 +3282,24 @@
       <c r="D1" s="106" t="s">
         <v>23</v>
       </c>
-      <c r="E1" s="92" t="s">
+      <c r="E1" s="102" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="93"/>
-      <c r="G1" s="93"/>
-      <c r="H1" s="92" t="s">
+      <c r="F1" s="103"/>
+      <c r="G1" s="103"/>
+      <c r="H1" s="102" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="93"/>
-      <c r="J1" s="93"/>
-      <c r="K1" s="92" t="s">
+      <c r="I1" s="103"/>
+      <c r="J1" s="103"/>
+      <c r="K1" s="102" t="s">
         <v>6</v>
       </c>
-      <c r="L1" s="93"/>
-      <c r="M1" s="93"/>
-    </row>
-    <row r="2" spans="1:13" ht="15.5">
-      <c r="A2" s="81"/>
+      <c r="L1" s="103"/>
+      <c r="M1" s="103"/>
+    </row>
+    <row r="2" spans="1:13" ht="15">
+      <c r="A2" s="86"/>
       <c r="B2" s="89"/>
       <c r="C2" s="107"/>
       <c r="D2" s="107"/>
@@ -3316,8 +3331,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="15.5">
-      <c r="A3" s="94" t="s">
+    <row r="3" spans="1:13" ht="15">
+      <c r="A3" s="104" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="49" t="s">
@@ -3357,8 +3372,8 @@
         <v>0.709780741719088</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="15.5">
-      <c r="A4" s="94"/>
+    <row r="4" spans="1:13" ht="15">
+      <c r="A4" s="104"/>
       <c r="B4" s="51" t="s">
         <v>25</v>
       </c>
@@ -3396,8 +3411,8 @@
         <v>0.74251456353165202</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="15.5">
-      <c r="A5" s="94"/>
+    <row r="5" spans="1:13" ht="15">
+      <c r="A5" s="104"/>
       <c r="B5" s="51" t="s">
         <v>26</v>
       </c>
@@ -3435,8 +3450,8 @@
         <v>0.69665645424836597</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="15.5">
-      <c r="A6" s="94"/>
+    <row r="6" spans="1:13" ht="15">
+      <c r="A6" s="104"/>
       <c r="B6" s="51" t="s">
         <v>27</v>
       </c>
@@ -3474,8 +3489,8 @@
         <v>0.66494898937429403</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="15.5">
-      <c r="A7" s="94"/>
+    <row r="7" spans="1:13" ht="15">
+      <c r="A7" s="104"/>
       <c r="B7" s="51" t="s">
         <v>28</v>
       </c>
@@ -3513,8 +3528,8 @@
         <v>0.72266427232673303</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="15.5">
-      <c r="A8" s="94"/>
+    <row r="8" spans="1:13" ht="15">
+      <c r="A8" s="104"/>
       <c r="B8" s="51" t="s">
         <v>29</v>
       </c>
@@ -3552,8 +3567,8 @@
         <v>0.72186056011551902</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="15.5">
-      <c r="A9" s="94"/>
+    <row r="9" spans="1:13" ht="15">
+      <c r="A9" s="104"/>
       <c r="B9" s="51" t="s">
         <v>30</v>
       </c>
@@ -3591,8 +3606,8 @@
         <v>0.72951129331320097</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="15.5">
-      <c r="A10" s="94"/>
+    <row r="10" spans="1:13" ht="15">
+      <c r="A10" s="104"/>
       <c r="B10" s="51" t="s">
         <v>31</v>
       </c>
@@ -3630,8 +3645,8 @@
         <v>0.66241400892853997</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="15.5">
-      <c r="A11" s="94"/>
+    <row r="11" spans="1:13" ht="15">
+      <c r="A11" s="104"/>
       <c r="B11" s="51" t="s">
         <v>32</v>
       </c>
@@ -3669,8 +3684,8 @@
         <v>0.66467010929751003</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="15.5">
-      <c r="A12" s="94"/>
+    <row r="12" spans="1:13" ht="15">
+      <c r="A12" s="104"/>
       <c r="B12" s="51" t="s">
         <v>33</v>
       </c>
@@ -3708,8 +3723,8 @@
         <v>0.67191490333915804</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="15.5">
-      <c r="A13" s="94"/>
+    <row r="13" spans="1:13" ht="15">
+      <c r="A13" s="104"/>
       <c r="B13" s="51" t="s">
         <v>34</v>
       </c>
@@ -3747,8 +3762,8 @@
         <v>0.66861503231068398</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="15.5">
-      <c r="A14" s="94"/>
+    <row r="14" spans="1:13" ht="15">
+      <c r="A14" s="104"/>
       <c r="B14" s="51" t="s">
         <v>35</v>
       </c>
@@ -3786,8 +3801,8 @@
         <v>0.73720954812636597</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="15.5">
-      <c r="A15" s="94"/>
+    <row r="15" spans="1:13" ht="15">
+      <c r="A15" s="104"/>
       <c r="B15" s="51" t="s">
         <v>36</v>
       </c>
@@ -3825,8 +3840,8 @@
         <v>0.70250634569720805</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="15.5">
-      <c r="A16" s="94"/>
+    <row r="16" spans="1:13" ht="15">
+      <c r="A16" s="104"/>
       <c r="B16" s="51" t="s">
         <v>22</v>
       </c>
@@ -3864,8 +3879,8 @@
         <v>0.69963590940987097</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="15.5">
-      <c r="A17" s="94"/>
+    <row r="17" spans="1:13" ht="15">
+      <c r="A17" s="104"/>
       <c r="B17" s="53" t="s">
         <v>37</v>
       </c>
@@ -3903,8 +3918,8 @@
         <v>0.781893004115226</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="15.5">
-      <c r="A18" s="94"/>
+    <row r="18" spans="1:13" ht="15">
+      <c r="A18" s="104"/>
       <c r="B18" s="53" t="s">
         <v>38</v>
       </c>
@@ -3942,8 +3957,8 @@
         <v>0.78151260504201703</v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="15.5">
-      <c r="A19" s="94"/>
+    <row r="19" spans="1:13" ht="15">
+      <c r="A19" s="104"/>
       <c r="B19" s="53" t="s">
         <v>39</v>
       </c>
@@ -3981,8 +3996,8 @@
         <v>0.76987447698744804</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="15.5">
-      <c r="A20" s="94"/>
+    <row r="20" spans="1:13" ht="15">
+      <c r="A20" s="104"/>
       <c r="B20" s="53" t="s">
         <v>40</v>
       </c>
@@ -4020,8 +4035,8 @@
         <v>0.79338842975206603</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="15.5">
-      <c r="A21" s="94"/>
+    <row r="21" spans="1:13" ht="15">
+      <c r="A21" s="104"/>
       <c r="B21" s="53" t="s">
         <v>41</v>
       </c>
@@ -4059,8 +4074,8 @@
         <v>0.78991596638655504</v>
       </c>
     </row>
-    <row r="22" spans="1:13" ht="15.5">
-      <c r="A22" s="94"/>
+    <row r="22" spans="1:13" ht="15">
+      <c r="A22" s="104"/>
       <c r="B22" s="53" t="s">
         <v>42</v>
       </c>
@@ -4098,8 +4113,8 @@
         <v>0.81147540983606603</v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="15.5">
-      <c r="A23" s="94"/>
+    <row r="23" spans="1:13" ht="15">
+      <c r="A23" s="104"/>
       <c r="B23" s="53" t="s">
         <v>43</v>
       </c>
@@ -4137,8 +4152,8 @@
         <v>0.78512396694214903</v>
       </c>
     </row>
-    <row r="24" spans="1:13" ht="15.5">
-      <c r="A24" s="94"/>
+    <row r="24" spans="1:13" ht="15">
+      <c r="A24" s="104"/>
       <c r="B24" s="53" t="s">
         <v>44</v>
       </c>
@@ -4176,8 +4191,8 @@
         <v>0.74774774774774799</v>
       </c>
     </row>
-    <row r="25" spans="1:13" ht="15.5">
-      <c r="A25" s="94"/>
+    <row r="25" spans="1:13" ht="15">
+      <c r="A25" s="104"/>
       <c r="B25" s="53" t="s">
         <v>45</v>
       </c>
@@ -4215,8 +4230,8 @@
         <v>0.76394849785407704</v>
       </c>
     </row>
-    <row r="26" spans="1:13" ht="15.5">
-      <c r="A26" s="94"/>
+    <row r="26" spans="1:13" ht="15">
+      <c r="A26" s="104"/>
       <c r="B26" s="53" t="s">
         <v>46</v>
       </c>
@@ -4254,8 +4269,8 @@
         <v>0.79508196721311497</v>
       </c>
     </row>
-    <row r="27" spans="1:13" ht="15.5">
-      <c r="A27" s="94"/>
+    <row r="27" spans="1:13" ht="15">
+      <c r="A27" s="104"/>
       <c r="B27" s="53" t="s">
         <v>47</v>
       </c>
@@ -4293,8 +4308,8 @@
         <v>0.78512396694214903</v>
       </c>
     </row>
-    <row r="28" spans="1:13" ht="15.5">
-      <c r="A28" s="94"/>
+    <row r="28" spans="1:13" ht="15">
+      <c r="A28" s="104"/>
       <c r="B28" s="53" t="s">
         <v>48</v>
       </c>
@@ -4332,8 +4347,8 @@
         <v>0.77586206896551702</v>
       </c>
     </row>
-    <row r="29" spans="1:13" ht="15.5">
-      <c r="A29" s="94"/>
+    <row r="29" spans="1:13" ht="15">
+      <c r="A29" s="104"/>
       <c r="B29" s="53" t="s">
         <v>49</v>
       </c>
@@ -4371,8 +4386,8 @@
         <v>0.784810126582279</v>
       </c>
     </row>
-    <row r="30" spans="1:13" ht="15.5">
-      <c r="A30" s="95"/>
+    <row r="30" spans="1:13" ht="15">
+      <c r="A30" s="105"/>
       <c r="B30" s="53" t="s">
         <v>22</v>
       </c>
@@ -4410,8 +4425,8 @@
         <v>0.78198140264356997</v>
       </c>
     </row>
-    <row r="31" spans="1:13" ht="15.5">
-      <c r="A31" s="96" t="s">
+    <row r="31" spans="1:13" ht="15">
+      <c r="A31" s="92" t="s">
         <v>18</v>
       </c>
       <c r="B31" s="56" t="s">
@@ -4451,8 +4466,8 @@
         <v>0.79069767441860395</v>
       </c>
     </row>
-    <row r="32" spans="1:13" ht="15.5">
-      <c r="A32" s="96"/>
+    <row r="32" spans="1:13" ht="15">
+      <c r="A32" s="92"/>
       <c r="B32" s="56" t="s">
         <v>25</v>
       </c>
@@ -4490,8 +4505,8 @@
         <v>0.78048780487804803</v>
       </c>
     </row>
-    <row r="33" spans="1:13" ht="15.5">
-      <c r="A33" s="96"/>
+    <row r="33" spans="1:13" ht="15">
+      <c r="A33" s="92"/>
       <c r="B33" s="56" t="s">
         <v>26</v>
       </c>
@@ -4529,8 +4544,8 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="34" spans="1:13" ht="15.5">
-      <c r="A34" s="96"/>
+    <row r="34" spans="1:13" ht="15">
+      <c r="A34" s="92"/>
       <c r="B34" s="56" t="s">
         <v>27</v>
       </c>
@@ -4568,8 +4583,8 @@
         <v>0.78947368421052599</v>
       </c>
     </row>
-    <row r="35" spans="1:13" ht="15.5">
-      <c r="A35" s="96"/>
+    <row r="35" spans="1:13" ht="15">
+      <c r="A35" s="92"/>
       <c r="B35" s="56" t="s">
         <v>28</v>
       </c>
@@ -4607,8 +4622,8 @@
         <v>0.79069767441860395</v>
       </c>
     </row>
-    <row r="36" spans="1:13" ht="15.5">
-      <c r="A36" s="96"/>
+    <row r="36" spans="1:13" ht="15">
+      <c r="A36" s="92"/>
       <c r="B36" s="56" t="s">
         <v>29</v>
       </c>
@@ -4646,8 +4661,8 @@
         <v>0.79069767441860395</v>
       </c>
     </row>
-    <row r="37" spans="1:13" ht="15.5">
-      <c r="A37" s="96"/>
+    <row r="37" spans="1:13" ht="15">
+      <c r="A37" s="92"/>
       <c r="B37" s="56" t="s">
         <v>30</v>
       </c>
@@ -4685,8 +4700,8 @@
         <v>0.77272727272727204</v>
       </c>
     </row>
-    <row r="38" spans="1:13" ht="15.5">
-      <c r="A38" s="96"/>
+    <row r="38" spans="1:13" ht="15">
+      <c r="A38" s="92"/>
       <c r="B38" s="56" t="s">
         <v>31</v>
       </c>
@@ -4724,8 +4739,8 @@
         <v>0.78048780487804803</v>
       </c>
     </row>
-    <row r="39" spans="1:13" ht="15.5">
-      <c r="A39" s="96"/>
+    <row r="39" spans="1:13" ht="15">
+      <c r="A39" s="92"/>
       <c r="B39" s="56" t="s">
         <v>32</v>
       </c>
@@ -4763,8 +4778,8 @@
         <v>0.79069767441860395</v>
       </c>
     </row>
-    <row r="40" spans="1:13" ht="15.5">
-      <c r="A40" s="96"/>
+    <row r="40" spans="1:13" ht="15">
+      <c r="A40" s="92"/>
       <c r="B40" s="56" t="s">
         <v>33</v>
       </c>
@@ -4802,8 +4817,8 @@
         <v>0.74418604651162701</v>
       </c>
     </row>
-    <row r="41" spans="1:13" ht="15.5">
-      <c r="A41" s="96"/>
+    <row r="41" spans="1:13" ht="15">
+      <c r="A41" s="92"/>
       <c r="B41" s="56" t="s">
         <v>34</v>
       </c>
@@ -4841,8 +4856,8 @@
         <v>0.76190476190476097</v>
       </c>
     </row>
-    <row r="42" spans="1:13" ht="15.5">
-      <c r="A42" s="96"/>
+    <row r="42" spans="1:13" ht="15">
+      <c r="A42" s="92"/>
       <c r="B42" s="56" t="s">
         <v>35</v>
       </c>
@@ -4880,8 +4895,8 @@
         <v>0.74418604651162701</v>
       </c>
     </row>
-    <row r="43" spans="1:13" ht="15.5">
-      <c r="A43" s="96"/>
+    <row r="43" spans="1:13" ht="15">
+      <c r="A43" s="92"/>
       <c r="B43" s="56" t="s">
         <v>36</v>
       </c>
@@ -4919,8 +4934,8 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="44" spans="1:13" ht="15.5">
-      <c r="A44" s="96"/>
+    <row r="44" spans="1:13" ht="15">
+      <c r="A44" s="92"/>
       <c r="B44" s="56" t="s">
         <v>22</v>
       </c>
@@ -4958,8 +4973,8 @@
         <v>0.77586493225356401</v>
       </c>
     </row>
-    <row r="45" spans="1:13" ht="15.5">
-      <c r="A45" s="96"/>
+    <row r="45" spans="1:13" ht="15">
+      <c r="A45" s="92"/>
       <c r="B45" s="58" t="s">
         <v>37</v>
       </c>
@@ -4997,8 +5012,8 @@
         <v>0.73684210526315697</v>
       </c>
     </row>
-    <row r="46" spans="1:13" ht="15.5">
-      <c r="A46" s="96"/>
+    <row r="46" spans="1:13" ht="15">
+      <c r="A46" s="92"/>
       <c r="B46" s="58" t="s">
         <v>38</v>
       </c>
@@ -5036,8 +5051,8 @@
         <v>0.62068965517241304</v>
       </c>
     </row>
-    <row r="47" spans="1:13" ht="15.5">
-      <c r="A47" s="96"/>
+    <row r="47" spans="1:13" ht="15">
+      <c r="A47" s="92"/>
       <c r="B47" s="58" t="s">
         <v>39</v>
       </c>
@@ -5075,8 +5090,8 @@
         <v>0.72222222222222199</v>
       </c>
     </row>
-    <row r="48" spans="1:13" ht="15.5">
-      <c r="A48" s="96"/>
+    <row r="48" spans="1:13" ht="15">
+      <c r="A48" s="92"/>
       <c r="B48" s="58" t="s">
         <v>40</v>
       </c>
@@ -5114,8 +5129,8 @@
         <v>0.74285714285714199</v>
       </c>
     </row>
-    <row r="49" spans="1:13" ht="15.5">
-      <c r="A49" s="96"/>
+    <row r="49" spans="1:13" ht="15">
+      <c r="A49" s="92"/>
       <c r="B49" s="58" t="s">
         <v>41</v>
       </c>
@@ -5153,8 +5168,8 @@
         <v>0.72222222222222199</v>
       </c>
     </row>
-    <row r="50" spans="1:13" ht="15.5">
-      <c r="A50" s="96"/>
+    <row r="50" spans="1:13" ht="15">
+      <c r="A50" s="92"/>
       <c r="B50" s="58" t="s">
         <v>42</v>
       </c>
@@ -5192,8 +5207,8 @@
         <v>0.75675675675675602</v>
       </c>
     </row>
-    <row r="51" spans="1:13" ht="15.5">
-      <c r="A51" s="96"/>
+    <row r="51" spans="1:13" ht="15">
+      <c r="A51" s="92"/>
       <c r="B51" s="58" t="s">
         <v>43</v>
       </c>
@@ -5231,8 +5246,8 @@
         <v>0.72222222222222199</v>
       </c>
     </row>
-    <row r="52" spans="1:13" ht="15.5">
-      <c r="A52" s="96"/>
+    <row r="52" spans="1:13" ht="15">
+      <c r="A52" s="92"/>
       <c r="B52" s="58" t="s">
         <v>44</v>
       </c>
@@ -5270,8 +5285,8 @@
         <v>0.64285714285714202</v>
       </c>
     </row>
-    <row r="53" spans="1:13" ht="15.5">
-      <c r="A53" s="96"/>
+    <row r="53" spans="1:13" ht="15">
+      <c r="A53" s="92"/>
       <c r="B53" s="58" t="s">
         <v>45</v>
       </c>
@@ -5309,8 +5324,8 @@
         <v>0.76470588235294101</v>
       </c>
     </row>
-    <row r="54" spans="1:13" ht="15.5">
-      <c r="A54" s="96"/>
+    <row r="54" spans="1:13" ht="15">
+      <c r="A54" s="92"/>
       <c r="B54" s="58" t="s">
         <v>46</v>
       </c>
@@ -5348,8 +5363,8 @@
         <v>0.78787878787878696</v>
       </c>
     </row>
-    <row r="55" spans="1:13" ht="15.5">
-      <c r="A55" s="96"/>
+    <row r="55" spans="1:13" ht="15">
+      <c r="A55" s="92"/>
       <c r="B55" s="58" t="s">
         <v>47</v>
       </c>
@@ -5387,8 +5402,8 @@
         <v>0.68421052631578905</v>
       </c>
     </row>
-    <row r="56" spans="1:13" ht="15.5">
-      <c r="A56" s="96"/>
+    <row r="56" spans="1:13" ht="15">
+      <c r="A56" s="92"/>
       <c r="B56" s="58" t="s">
         <v>48</v>
       </c>
@@ -5426,8 +5441,8 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="57" spans="1:13" ht="15.5">
-      <c r="A57" s="96"/>
+    <row r="57" spans="1:13" ht="15">
+      <c r="A57" s="92"/>
       <c r="B57" s="58" t="s">
         <v>49</v>
       </c>
@@ -5465,8 +5480,8 @@
         <v>0.72222222222222199</v>
       </c>
     </row>
-    <row r="58" spans="1:13" ht="15.5">
-      <c r="A58" s="97"/>
+    <row r="58" spans="1:13" ht="15">
+      <c r="A58" s="93"/>
       <c r="B58" s="58" t="s">
         <v>22</v>
       </c>
@@ -5504,8 +5519,8 @@
         <v>0.72120668371869301</v>
       </c>
     </row>
-    <row r="59" spans="1:13" ht="15.5">
-      <c r="A59" s="98" t="s">
+    <row r="59" spans="1:13" ht="15">
+      <c r="A59" s="94" t="s">
         <v>19</v>
       </c>
       <c r="B59" s="61" t="s">
@@ -5545,8 +5560,8 @@
         <v>0.68041237113401998</v>
       </c>
     </row>
-    <row r="60" spans="1:13" ht="15.5">
-      <c r="A60" s="98"/>
+    <row r="60" spans="1:13" ht="15">
+      <c r="A60" s="94"/>
       <c r="B60" s="61" t="s">
         <v>25</v>
       </c>
@@ -5584,8 +5599,8 @@
         <v>0.73267326732673199</v>
       </c>
     </row>
-    <row r="61" spans="1:13" ht="15.5">
-      <c r="A61" s="98"/>
+    <row r="61" spans="1:13" ht="15">
+      <c r="A61" s="94"/>
       <c r="B61" s="61" t="s">
         <v>26</v>
       </c>
@@ -5623,8 +5638,8 @@
         <v>0.74509803921568596</v>
       </c>
     </row>
-    <row r="62" spans="1:13" ht="15.5">
-      <c r="A62" s="98"/>
+    <row r="62" spans="1:13" ht="15">
+      <c r="A62" s="94"/>
       <c r="B62" s="61" t="s">
         <v>27</v>
       </c>
@@ -5662,8 +5677,8 @@
         <v>0.69387755102040805</v>
       </c>
     </row>
-    <row r="63" spans="1:13" ht="15.5">
-      <c r="A63" s="98"/>
+    <row r="63" spans="1:13" ht="15">
+      <c r="A63" s="94"/>
       <c r="B63" s="61" t="s">
         <v>28</v>
       </c>
@@ -5701,8 +5716,8 @@
         <v>0.74509803921568596</v>
       </c>
     </row>
-    <row r="64" spans="1:13" ht="15.5">
-      <c r="A64" s="98"/>
+    <row r="64" spans="1:13" ht="15">
+      <c r="A64" s="94"/>
       <c r="B64" s="61" t="s">
         <v>29</v>
       </c>
@@ -5740,8 +5755,8 @@
         <v>0.72</v>
       </c>
     </row>
-    <row r="65" spans="1:13" ht="15.5">
-      <c r="A65" s="98"/>
+    <row r="65" spans="1:13" ht="15">
+      <c r="A65" s="94"/>
       <c r="B65" s="61" t="s">
         <v>30</v>
       </c>
@@ -5779,8 +5794,8 @@
         <v>0.73267326732673199</v>
       </c>
     </row>
-    <row r="66" spans="1:13" ht="15.5">
-      <c r="A66" s="98"/>
+    <row r="66" spans="1:13" ht="15">
+      <c r="A66" s="94"/>
       <c r="B66" s="61" t="s">
         <v>31</v>
       </c>
@@ -5818,8 +5833,8 @@
         <v>0.73267326732673199</v>
       </c>
     </row>
-    <row r="67" spans="1:13" ht="15.5">
-      <c r="A67" s="98"/>
+    <row r="67" spans="1:13" ht="15">
+      <c r="A67" s="94"/>
       <c r="B67" s="61" t="s">
         <v>32</v>
       </c>
@@ -5857,8 +5872,8 @@
         <v>0.72</v>
       </c>
     </row>
-    <row r="68" spans="1:13" ht="15.5">
-      <c r="A68" s="98"/>
+    <row r="68" spans="1:13" ht="15">
+      <c r="A68" s="94"/>
       <c r="B68" s="61" t="s">
         <v>33</v>
       </c>
@@ -5896,8 +5911,8 @@
         <v>0.74509803921568596</v>
       </c>
     </row>
-    <row r="69" spans="1:13" ht="15.5">
-      <c r="A69" s="98"/>
+    <row r="69" spans="1:13" ht="15">
+      <c r="A69" s="94"/>
       <c r="B69" s="61" t="s">
         <v>34</v>
       </c>
@@ -5935,8 +5950,8 @@
         <v>0.72</v>
       </c>
     </row>
-    <row r="70" spans="1:13" ht="15.5">
-      <c r="A70" s="98"/>
+    <row r="70" spans="1:13" ht="15">
+      <c r="A70" s="94"/>
       <c r="B70" s="61" t="s">
         <v>35</v>
       </c>
@@ -5974,8 +5989,8 @@
         <v>0.75728155339805803</v>
       </c>
     </row>
-    <row r="71" spans="1:13" ht="15.5">
-      <c r="A71" s="98"/>
+    <row r="71" spans="1:13" ht="15">
+      <c r="A71" s="94"/>
       <c r="B71" s="61" t="s">
         <v>36</v>
       </c>
@@ -6013,8 +6028,8 @@
         <v>0.72</v>
       </c>
     </row>
-    <row r="72" spans="1:13" ht="15.5">
-      <c r="A72" s="98"/>
+    <row r="72" spans="1:13" ht="15">
+      <c r="A72" s="94"/>
       <c r="B72" s="61" t="s">
         <v>22</v>
       </c>
@@ -6052,8 +6067,8 @@
         <v>0.72652964578305701</v>
       </c>
     </row>
-    <row r="73" spans="1:13" ht="15.5">
-      <c r="A73" s="98"/>
+    <row r="73" spans="1:13" ht="15">
+      <c r="A73" s="94"/>
       <c r="B73" s="64" t="s">
         <v>37</v>
       </c>
@@ -6091,8 +6106,8 @@
         <v>0.73267326732673199</v>
       </c>
     </row>
-    <row r="74" spans="1:13" ht="15.5">
-      <c r="A74" s="98"/>
+    <row r="74" spans="1:13" ht="15">
+      <c r="A74" s="94"/>
       <c r="B74" s="64" t="s">
         <v>38</v>
       </c>
@@ -6130,8 +6145,8 @@
         <v>0.76923076923076905</v>
       </c>
     </row>
-    <row r="75" spans="1:13" ht="15.5">
-      <c r="A75" s="98"/>
+    <row r="75" spans="1:13" ht="15">
+      <c r="A75" s="94"/>
       <c r="B75" s="64" t="s">
         <v>39</v>
       </c>
@@ -6169,8 +6184,8 @@
         <v>0.74509803921568596</v>
       </c>
     </row>
-    <row r="76" spans="1:13" ht="15.5">
-      <c r="A76" s="98"/>
+    <row r="76" spans="1:13" ht="15">
+      <c r="A76" s="94"/>
       <c r="B76" s="64" t="s">
         <v>40</v>
       </c>
@@ -6208,8 +6223,8 @@
         <v>0.74509803921568596</v>
       </c>
     </row>
-    <row r="77" spans="1:13" ht="15.5">
-      <c r="A77" s="98"/>
+    <row r="77" spans="1:13" ht="15">
+      <c r="A77" s="94"/>
       <c r="B77" s="64" t="s">
         <v>41</v>
       </c>
@@ -6247,8 +6262,8 @@
         <v>0.81481481481481399</v>
       </c>
     </row>
-    <row r="78" spans="1:13" ht="15.5">
-      <c r="A78" s="98"/>
+    <row r="78" spans="1:13" ht="15">
+      <c r="A78" s="94"/>
       <c r="B78" s="64" t="s">
         <v>42</v>
       </c>
@@ -6286,8 +6301,8 @@
         <v>0.73267326732673199</v>
       </c>
     </row>
-    <row r="79" spans="1:13" ht="15.5">
-      <c r="A79" s="98"/>
+    <row r="79" spans="1:13" ht="15">
+      <c r="A79" s="94"/>
       <c r="B79" s="64" t="s">
         <v>43</v>
       </c>
@@ -6325,8 +6340,8 @@
         <v>0.74509803921568596</v>
       </c>
     </row>
-    <row r="80" spans="1:13" ht="15.5">
-      <c r="A80" s="98"/>
+    <row r="80" spans="1:13" ht="15">
+      <c r="A80" s="94"/>
       <c r="B80" s="64" t="s">
         <v>44</v>
       </c>
@@ -6364,8 +6379,8 @@
         <v>0.70707070707070696</v>
       </c>
     </row>
-    <row r="81" spans="1:13" ht="15.5">
-      <c r="A81" s="98"/>
+    <row r="81" spans="1:13" ht="15">
+      <c r="A81" s="94"/>
       <c r="B81" s="64" t="s">
         <v>45</v>
       </c>
@@ -6403,8 +6418,8 @@
         <v>0.75728155339805803</v>
       </c>
     </row>
-    <row r="82" spans="1:13" ht="15.5">
-      <c r="A82" s="98"/>
+    <row r="82" spans="1:13" ht="15">
+      <c r="A82" s="94"/>
       <c r="B82" s="64" t="s">
         <v>46</v>
       </c>
@@ -6442,8 +6457,8 @@
         <v>0.74509803921568596</v>
       </c>
     </row>
-    <row r="83" spans="1:13" ht="15.5">
-      <c r="A83" s="98"/>
+    <row r="83" spans="1:13" ht="15">
+      <c r="A83" s="94"/>
       <c r="B83" s="64" t="s">
         <v>47</v>
       </c>
@@ -6481,8 +6496,8 @@
         <v>0.73267326732673199</v>
       </c>
     </row>
-    <row r="84" spans="1:13" ht="15.5">
-      <c r="A84" s="98"/>
+    <row r="84" spans="1:13" ht="15">
+      <c r="A84" s="94"/>
       <c r="B84" s="64" t="s">
         <v>48</v>
       </c>
@@ -6520,8 +6535,8 @@
         <v>0.73267326732673199</v>
       </c>
     </row>
-    <row r="85" spans="1:13" ht="15.5">
-      <c r="A85" s="98"/>
+    <row r="85" spans="1:13" ht="15">
+      <c r="A85" s="94"/>
       <c r="B85" s="64" t="s">
         <v>49</v>
       </c>
@@ -6559,8 +6574,8 @@
         <v>0.73267326732673199</v>
       </c>
     </row>
-    <row r="86" spans="1:13" ht="15.5">
-      <c r="A86" s="99"/>
+    <row r="86" spans="1:13" ht="15">
+      <c r="A86" s="95"/>
       <c r="B86" s="64" t="s">
         <v>22</v>
       </c>
@@ -6598,8 +6613,8 @@
         <v>0.74555048753928899</v>
       </c>
     </row>
-    <row r="87" spans="1:13" ht="15.5">
-      <c r="A87" s="100" t="s">
+    <row r="87" spans="1:13" ht="15">
+      <c r="A87" s="96" t="s">
         <v>20</v>
       </c>
       <c r="B87" s="67" t="s">
@@ -6639,8 +6654,8 @@
         <v>0.83333333333333304</v>
       </c>
     </row>
-    <row r="88" spans="1:13" ht="15.5">
-      <c r="A88" s="100"/>
+    <row r="88" spans="1:13" ht="15">
+      <c r="A88" s="96"/>
       <c r="B88" s="67" t="s">
         <v>25</v>
       </c>
@@ -6678,8 +6693,8 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="89" spans="1:13" ht="15.5">
-      <c r="A89" s="100"/>
+    <row r="89" spans="1:13" ht="15">
+      <c r="A89" s="96"/>
       <c r="B89" s="67" t="s">
         <v>26</v>
       </c>
@@ -6717,8 +6732,8 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="90" spans="1:13" ht="15.5">
-      <c r="A90" s="100"/>
+    <row r="90" spans="1:13" ht="15">
+      <c r="A90" s="96"/>
       <c r="B90" s="67" t="s">
         <v>27</v>
       </c>
@@ -6756,8 +6771,8 @@
         <v>0.83333333333333304</v>
       </c>
     </row>
-    <row r="91" spans="1:13" ht="15.5">
-      <c r="A91" s="100"/>
+    <row r="91" spans="1:13" ht="15">
+      <c r="A91" s="96"/>
       <c r="B91" s="67" t="s">
         <v>28</v>
       </c>
@@ -6795,8 +6810,8 @@
         <v>0.83333333333333304</v>
       </c>
     </row>
-    <row r="92" spans="1:13" ht="15.5">
-      <c r="A92" s="100"/>
+    <row r="92" spans="1:13" ht="15">
+      <c r="A92" s="96"/>
       <c r="B92" s="67" t="s">
         <v>29</v>
       </c>
@@ -6834,8 +6849,8 @@
         <v>0.83333333333333304</v>
       </c>
     </row>
-    <row r="93" spans="1:13" ht="15.5">
-      <c r="A93" s="100"/>
+    <row r="93" spans="1:13" ht="15">
+      <c r="A93" s="96"/>
       <c r="B93" s="67" t="s">
         <v>30</v>
       </c>
@@ -6873,8 +6888,8 @@
         <v>0.78260869565217395</v>
       </c>
     </row>
-    <row r="94" spans="1:13" ht="15.5">
-      <c r="A94" s="100"/>
+    <row r="94" spans="1:13" ht="15">
+      <c r="A94" s="96"/>
       <c r="B94" s="67" t="s">
         <v>31</v>
       </c>
@@ -6912,8 +6927,8 @@
         <v>0.78260869565217395</v>
       </c>
     </row>
-    <row r="95" spans="1:13" ht="15.5">
-      <c r="A95" s="100"/>
+    <row r="95" spans="1:13" ht="15">
+      <c r="A95" s="96"/>
       <c r="B95" s="67" t="s">
         <v>32</v>
       </c>
@@ -6951,8 +6966,8 @@
         <v>0.78260869565217395</v>
       </c>
     </row>
-    <row r="96" spans="1:13" ht="15.5">
-      <c r="A96" s="100"/>
+    <row r="96" spans="1:13" ht="15">
+      <c r="A96" s="96"/>
       <c r="B96" s="67" t="s">
         <v>33</v>
       </c>
@@ -6990,8 +7005,8 @@
         <v>0.78260869565217395</v>
       </c>
     </row>
-    <row r="97" spans="1:13" ht="15.5">
-      <c r="A97" s="100"/>
+    <row r="97" spans="1:13" ht="15">
+      <c r="A97" s="96"/>
       <c r="B97" s="67" t="s">
         <v>34</v>
       </c>
@@ -7029,8 +7044,8 @@
         <v>0.72727272727272696</v>
       </c>
     </row>
-    <row r="98" spans="1:13" ht="15.5">
-      <c r="A98" s="100"/>
+    <row r="98" spans="1:13" ht="15">
+      <c r="A98" s="96"/>
       <c r="B98" s="67" t="s">
         <v>35</v>
       </c>
@@ -7068,8 +7083,8 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="99" spans="1:13" ht="15.5">
-      <c r="A99" s="100"/>
+    <row r="99" spans="1:13" ht="15">
+      <c r="A99" s="96"/>
       <c r="B99" s="67" t="s">
         <v>36</v>
       </c>
@@ -7107,8 +7122,8 @@
         <v>0.78260869565217395</v>
       </c>
     </row>
-    <row r="100" spans="1:13" ht="15.5">
-      <c r="A100" s="100"/>
+    <row r="100" spans="1:13" ht="15">
+      <c r="A100" s="96"/>
       <c r="B100" s="67" t="s">
         <v>22</v>
       </c>
@@ -7146,8 +7161,8 @@
         <v>0.81643457991284096</v>
       </c>
     </row>
-    <row r="101" spans="1:13" ht="15.5">
-      <c r="A101" s="100"/>
+    <row r="101" spans="1:13" ht="15">
+      <c r="A101" s="96"/>
       <c r="B101" s="70" t="s">
         <v>37</v>
       </c>
@@ -7185,8 +7200,8 @@
         <v>0.84615384615384603</v>
       </c>
     </row>
-    <row r="102" spans="1:13" ht="15.5">
-      <c r="A102" s="100"/>
+    <row r="102" spans="1:13" ht="15">
+      <c r="A102" s="96"/>
       <c r="B102" s="70" t="s">
         <v>38</v>
       </c>
@@ -7224,8 +7239,8 @@
         <v>0.86956521739130399</v>
       </c>
     </row>
-    <row r="103" spans="1:13" ht="15.5">
-      <c r="A103" s="100"/>
+    <row r="103" spans="1:13" ht="15">
+      <c r="A103" s="96"/>
       <c r="B103" s="70" t="s">
         <v>39</v>
       </c>
@@ -7263,8 +7278,8 @@
         <v>0.83333333333333304</v>
       </c>
     </row>
-    <row r="104" spans="1:13" ht="15.5">
-      <c r="A104" s="100"/>
+    <row r="104" spans="1:13" ht="15">
+      <c r="A104" s="96"/>
       <c r="B104" s="70" t="s">
         <v>40</v>
       </c>
@@ -7302,8 +7317,8 @@
         <v>0.83333333333333304</v>
       </c>
     </row>
-    <row r="105" spans="1:13" ht="15.5">
-      <c r="A105" s="100"/>
+    <row r="105" spans="1:13" ht="15">
+      <c r="A105" s="96"/>
       <c r="B105" s="70" t="s">
         <v>41</v>
       </c>
@@ -7341,8 +7356,8 @@
         <v>0.83333333333333304</v>
       </c>
     </row>
-    <row r="106" spans="1:13" ht="15.5">
-      <c r="A106" s="100"/>
+    <row r="106" spans="1:13" ht="15">
+      <c r="A106" s="96"/>
       <c r="B106" s="70" t="s">
         <v>42</v>
       </c>
@@ -7380,8 +7395,8 @@
         <v>0.83333333333333304</v>
       </c>
     </row>
-    <row r="107" spans="1:13" ht="15.5">
-      <c r="A107" s="100"/>
+    <row r="107" spans="1:13" ht="15">
+      <c r="A107" s="96"/>
       <c r="B107" s="70" t="s">
         <v>43</v>
       </c>
@@ -7419,8 +7434,8 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="108" spans="1:13" ht="15.5">
-      <c r="A108" s="100"/>
+    <row r="108" spans="1:13" ht="15">
+      <c r="A108" s="96"/>
       <c r="B108" s="70" t="s">
         <v>44</v>
       </c>
@@ -7458,8 +7473,8 @@
         <v>0.76190476190476097</v>
       </c>
     </row>
-    <row r="109" spans="1:13" ht="15.5">
-      <c r="A109" s="100"/>
+    <row r="109" spans="1:13" ht="15">
+      <c r="A109" s="96"/>
       <c r="B109" s="70" t="s">
         <v>45</v>
       </c>
@@ -7497,8 +7512,8 @@
         <v>0.83333333333333304</v>
       </c>
     </row>
-    <row r="110" spans="1:13" ht="15.5">
-      <c r="A110" s="100"/>
+    <row r="110" spans="1:13" ht="15">
+      <c r="A110" s="96"/>
       <c r="B110" s="70" t="s">
         <v>46</v>
       </c>
@@ -7536,8 +7551,8 @@
         <v>0.72727272727272696</v>
       </c>
     </row>
-    <row r="111" spans="1:13" ht="15.5">
-      <c r="A111" s="100"/>
+    <row r="111" spans="1:13" ht="15">
+      <c r="A111" s="96"/>
       <c r="B111" s="70" t="s">
         <v>47</v>
       </c>
@@ -7575,8 +7590,8 @@
         <v>0.83333333333333304</v>
       </c>
     </row>
-    <row r="112" spans="1:13" ht="15.5">
-      <c r="A112" s="100"/>
+    <row r="112" spans="1:13" ht="15">
+      <c r="A112" s="96"/>
       <c r="B112" s="70" t="s">
         <v>48</v>
       </c>
@@ -7614,8 +7629,8 @@
         <v>0.78260869565217395</v>
       </c>
     </row>
-    <row r="113" spans="1:13" ht="15.5">
-      <c r="A113" s="100"/>
+    <row r="113" spans="1:13" ht="15">
+      <c r="A113" s="96"/>
       <c r="B113" s="70" t="s">
         <v>49</v>
       </c>
@@ -7653,8 +7668,8 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="114" spans="1:13" ht="15.5">
-      <c r="A114" s="101"/>
+    <row r="114" spans="1:13" ht="15">
+      <c r="A114" s="97"/>
       <c r="B114" s="70" t="s">
         <v>22</v>
       </c>
@@ -7692,8 +7707,8 @@
         <v>0.82673117295190901</v>
       </c>
     </row>
-    <row r="115" spans="1:13" ht="15.5">
-      <c r="A115" s="102" t="s">
+    <row r="115" spans="1:13" ht="15">
+      <c r="A115" s="98" t="s">
         <v>21</v>
       </c>
       <c r="B115" s="73" t="s">
@@ -7733,8 +7748,8 @@
         <v>0.56338028169013998</v>
       </c>
     </row>
-    <row r="116" spans="1:13" ht="15.5">
-      <c r="A116" s="102"/>
+    <row r="116" spans="1:13" ht="15">
+      <c r="A116" s="98"/>
       <c r="B116" s="73" t="s">
         <v>25</v>
       </c>
@@ -7772,8 +7787,8 @@
         <v>0.62162162162162105</v>
       </c>
     </row>
-    <row r="117" spans="1:13" ht="15.5">
-      <c r="A117" s="102"/>
+    <row r="117" spans="1:13" ht="15">
+      <c r="A117" s="98"/>
       <c r="B117" s="73" t="s">
         <v>26</v>
       </c>
@@ -7811,8 +7826,8 @@
         <v>0.602739726027397</v>
       </c>
     </row>
-    <row r="118" spans="1:13" ht="15.5">
-      <c r="A118" s="102"/>
+    <row r="118" spans="1:13" ht="15">
+      <c r="A118" s="98"/>
       <c r="B118" s="73" t="s">
         <v>27</v>
       </c>
@@ -7850,8 +7865,8 @@
         <v>0.52173913043478204</v>
       </c>
     </row>
-    <row r="119" spans="1:13" ht="15.5">
-      <c r="A119" s="102"/>
+    <row r="119" spans="1:13" ht="15">
+      <c r="A119" s="98"/>
       <c r="B119" s="73" t="s">
         <v>28</v>
       </c>
@@ -7889,8 +7904,8 @@
         <v>0.54794520547945202</v>
       </c>
     </row>
-    <row r="120" spans="1:13" ht="15.5">
-      <c r="A120" s="102"/>
+    <row r="120" spans="1:13" ht="15">
+      <c r="A120" s="98"/>
       <c r="B120" s="73" t="s">
         <v>29</v>
       </c>
@@ -7928,8 +7943,8 @@
         <v>0.56338028169013998</v>
       </c>
     </row>
-    <row r="121" spans="1:13" ht="15.5">
-      <c r="A121" s="102"/>
+    <row r="121" spans="1:13" ht="15">
+      <c r="A121" s="98"/>
       <c r="B121" s="73" t="s">
         <v>30</v>
       </c>
@@ -7967,8 +7982,8 @@
         <v>0.58333333333333304</v>
       </c>
     </row>
-    <row r="122" spans="1:13" ht="15.5">
-      <c r="A122" s="102"/>
+    <row r="122" spans="1:13" ht="15">
+      <c r="A122" s="98"/>
       <c r="B122" s="73" t="s">
         <v>31</v>
       </c>
@@ -8006,8 +8021,8 @@
         <v>0.57142857142857095</v>
       </c>
     </row>
-    <row r="123" spans="1:13" ht="15.5">
-      <c r="A123" s="102"/>
+    <row r="123" spans="1:13" ht="15">
+      <c r="A123" s="98"/>
       <c r="B123" s="73" t="s">
         <v>32</v>
       </c>
@@ -8045,8 +8060,8 @@
         <v>0.57142857142857095</v>
       </c>
     </row>
-    <row r="124" spans="1:13" ht="15.5">
-      <c r="A124" s="102"/>
+    <row r="124" spans="1:13" ht="15">
+      <c r="A124" s="98"/>
       <c r="B124" s="73" t="s">
         <v>33</v>
       </c>
@@ -8084,8 +8099,8 @@
         <v>0.63013698630136905</v>
       </c>
     </row>
-    <row r="125" spans="1:13" ht="15.5">
-      <c r="A125" s="102"/>
+    <row r="125" spans="1:13" ht="15">
+      <c r="A125" s="98"/>
       <c r="B125" s="73" t="s">
         <v>34</v>
       </c>
@@ -8123,8 +8138,8 @@
         <v>0.56338028169013998</v>
       </c>
     </row>
-    <row r="126" spans="1:13" ht="15.5">
-      <c r="A126" s="102"/>
+    <row r="126" spans="1:13" ht="15">
+      <c r="A126" s="98"/>
       <c r="B126" s="73" t="s">
         <v>35</v>
       </c>
@@ -8162,8 +8177,8 @@
         <v>0.602739726027397</v>
       </c>
     </row>
-    <row r="127" spans="1:13" ht="15.5">
-      <c r="A127" s="102"/>
+    <row r="127" spans="1:13" ht="15">
+      <c r="A127" s="98"/>
       <c r="B127" s="73" t="s">
         <v>36</v>
       </c>
@@ -8201,8 +8216,8 @@
         <v>0.53731343283582</v>
       </c>
     </row>
-    <row r="128" spans="1:13" ht="15.5">
-      <c r="A128" s="102"/>
+    <row r="128" spans="1:13" ht="15">
+      <c r="A128" s="98"/>
       <c r="B128" s="73" t="s">
         <v>22</v>
       </c>
@@ -8240,8 +8255,8 @@
         <v>0.57542824230682599</v>
       </c>
     </row>
-    <row r="129" spans="1:13" ht="15.5">
-      <c r="A129" s="102"/>
+    <row r="129" spans="1:13" ht="15">
+      <c r="A129" s="98"/>
       <c r="B129" s="75" t="s">
         <v>37</v>
       </c>
@@ -8279,8 +8294,8 @@
         <v>0.53731343283582</v>
       </c>
     </row>
-    <row r="130" spans="1:13" ht="15.5">
-      <c r="A130" s="102"/>
+    <row r="130" spans="1:13" ht="15">
+      <c r="A130" s="98"/>
       <c r="B130" s="75" t="s">
         <v>38</v>
       </c>
@@ -8318,8 +8333,8 @@
         <v>0.53333333333333299</v>
       </c>
     </row>
-    <row r="131" spans="1:13" ht="15.5">
-      <c r="A131" s="102"/>
+    <row r="131" spans="1:13" ht="15">
+      <c r="A131" s="98"/>
       <c r="B131" s="75" t="s">
         <v>39</v>
       </c>
@@ -8357,8 +8372,8 @@
         <v>0.58461538461538398</v>
       </c>
     </row>
-    <row r="132" spans="1:13" ht="15.5">
-      <c r="A132" s="102"/>
+    <row r="132" spans="1:13" ht="15">
+      <c r="A132" s="98"/>
       <c r="B132" s="75" t="s">
         <v>40</v>
       </c>
@@ -8396,8 +8411,8 @@
         <v>0.55384615384615299</v>
       </c>
     </row>
-    <row r="133" spans="1:13" ht="15.5">
-      <c r="A133" s="102"/>
+    <row r="133" spans="1:13" ht="15">
+      <c r="A133" s="98"/>
       <c r="B133" s="75" t="s">
         <v>41</v>
       </c>
@@ -8435,8 +8450,8 @@
         <v>0.59375</v>
       </c>
     </row>
-    <row r="134" spans="1:13" ht="15.5">
-      <c r="A134" s="102"/>
+    <row r="134" spans="1:13" ht="15">
+      <c r="A134" s="98"/>
       <c r="B134" s="75" t="s">
         <v>42</v>
       </c>
@@ -8474,8 +8489,8 @@
         <v>0.53125</v>
       </c>
     </row>
-    <row r="135" spans="1:13" ht="15.5">
-      <c r="A135" s="102"/>
+    <row r="135" spans="1:13" ht="15">
+      <c r="A135" s="98"/>
       <c r="B135" s="75" t="s">
         <v>43</v>
       </c>
@@ -8513,8 +8528,8 @@
         <v>0.58461538461538398</v>
       </c>
     </row>
-    <row r="136" spans="1:13" ht="15.5">
-      <c r="A136" s="102"/>
+    <row r="136" spans="1:13" ht="15">
+      <c r="A136" s="98"/>
       <c r="B136" s="75" t="s">
         <v>44</v>
       </c>
@@ -8552,8 +8567,8 @@
         <v>0.39285714285714202</v>
       </c>
     </row>
-    <row r="137" spans="1:13" ht="15.5">
-      <c r="A137" s="102"/>
+    <row r="137" spans="1:13" ht="15">
+      <c r="A137" s="98"/>
       <c r="B137" s="75" t="s">
         <v>45</v>
       </c>
@@ -8591,8 +8606,8 @@
         <v>0.57142857142857095</v>
       </c>
     </row>
-    <row r="138" spans="1:13" ht="15.5">
-      <c r="A138" s="102"/>
+    <row r="138" spans="1:13" ht="15">
+      <c r="A138" s="98"/>
       <c r="B138" s="75" t="s">
         <v>46</v>
       </c>
@@ -8630,8 +8645,8 @@
         <v>0.53968253968253899</v>
       </c>
     </row>
-    <row r="139" spans="1:13" ht="15.5">
-      <c r="A139" s="102"/>
+    <row r="139" spans="1:13" ht="15">
+      <c r="A139" s="98"/>
       <c r="B139" s="75" t="s">
         <v>47</v>
       </c>
@@ -8669,8 +8684,8 @@
         <v>0.5625</v>
       </c>
     </row>
-    <row r="140" spans="1:13" ht="15.5">
-      <c r="A140" s="102"/>
+    <row r="140" spans="1:13" ht="15">
+      <c r="A140" s="98"/>
       <c r="B140" s="75" t="s">
         <v>48</v>
       </c>
@@ -8708,8 +8723,8 @@
         <v>0.47457627118644002</v>
       </c>
     </row>
-    <row r="141" spans="1:13" ht="15.5">
-      <c r="A141" s="102"/>
+    <row r="141" spans="1:13" ht="15">
+      <c r="A141" s="98"/>
       <c r="B141" s="75" t="s">
         <v>49</v>
       </c>
@@ -8747,8 +8762,8 @@
         <v>0.53125</v>
       </c>
     </row>
-    <row r="142" spans="1:13" ht="15.5">
-      <c r="A142" s="103"/>
+    <row r="142" spans="1:13" ht="15">
+      <c r="A142" s="99"/>
       <c r="B142" s="75" t="s">
         <v>22</v>
       </c>
@@ -8786,8 +8801,8 @@
         <v>0.53777063187698204</v>
       </c>
     </row>
-    <row r="143" spans="1:13" ht="15.5">
-      <c r="A143" s="104" t="s">
+    <row r="143" spans="1:13" ht="15">
+      <c r="A143" s="100" t="s">
         <v>22</v>
       </c>
       <c r="B143" s="78" t="s">
@@ -8795,169 +8810,169 @@
       </c>
       <c r="C143" s="13">
         <f>AVERAGE(C3,C31,C59,C87,C115)</f>
-        <v>0.75328151540059396</v>
+        <v>0.75328151540059429</v>
       </c>
       <c r="D143" s="13">
         <f>AVERAGE(D3,D31,D59,D87,D115)</f>
-        <v>0.65202041120836096</v>
+        <v>0.65202041120836118</v>
       </c>
       <c r="E143" s="13">
         <f t="shared" ref="E143:M143" si="0">AVERAGE(E3,E31,E59,E87,E115)</f>
-        <v>0.74136057134177402</v>
+        <v>0.74136057134177424</v>
       </c>
       <c r="F143" s="13">
         <f t="shared" si="0"/>
-        <v>0.75876958673905404</v>
+        <v>0.75876958673905359</v>
       </c>
       <c r="G143" s="13">
         <f t="shared" si="0"/>
-        <v>0.74782055016593396</v>
+        <v>0.74782055016593341</v>
       </c>
       <c r="H143" s="13">
         <f t="shared" si="0"/>
-        <v>0.47590561905395601</v>
+        <v>0.47590561905395656</v>
       </c>
       <c r="I143" s="13">
         <f t="shared" si="0"/>
-        <v>0.52122112613161198</v>
+        <v>0.52122112613161165</v>
       </c>
       <c r="J143" s="13">
         <f t="shared" si="0"/>
-        <v>0.49271980300011398</v>
+        <v>0.4927198030001142</v>
       </c>
       <c r="K143" s="13">
         <f t="shared" si="0"/>
-        <v>0.82260471663412804</v>
+        <v>0.82260471663412815</v>
       </c>
       <c r="L143" s="13">
         <f t="shared" si="0"/>
-        <v>0.67728060725880501</v>
+        <v>0.67728060725880457</v>
       </c>
       <c r="M143" s="13">
         <f t="shared" si="0"/>
-        <v>0.71552088045903695</v>
-      </c>
-    </row>
-    <row r="144" spans="1:13" ht="15.5">
-      <c r="A144" s="104"/>
+        <v>0.71552088045903706</v>
+      </c>
+    </row>
+    <row r="144" spans="1:13" ht="15">
+      <c r="A144" s="100"/>
       <c r="B144" s="78" t="s">
         <v>25</v>
       </c>
       <c r="C144" s="13">
         <f t="shared" ref="C144:D155" si="1">AVERAGE(C4,C32,C60,C88,C116)</f>
-        <v>0.78678100223317105</v>
+        <v>0.78678100223317138</v>
       </c>
       <c r="D144" s="13">
         <f t="shared" si="1"/>
-        <v>0.67705449218716196</v>
+        <v>0.67705449218716141</v>
       </c>
       <c r="E144" s="13">
         <f t="shared" ref="E144:M144" si="2">AVERAGE(E4,E32,E60,E88,E116)</f>
-        <v>0.729767087750958</v>
+        <v>0.72976708775095833</v>
       </c>
       <c r="F144" s="13">
         <f t="shared" si="2"/>
-        <v>0.80187823299278405</v>
+        <v>0.80187823299278382</v>
       </c>
       <c r="G144" s="13">
         <f t="shared" si="2"/>
-        <v>0.76224773085170205</v>
+        <v>0.7622477308517025</v>
       </c>
       <c r="H144" s="13">
         <f t="shared" si="2"/>
-        <v>0.51890426614535201</v>
+        <v>0.51890426614535246</v>
       </c>
       <c r="I144" s="13">
         <f t="shared" si="2"/>
-        <v>0.51825193845654205</v>
+        <v>0.51825193845654161</v>
       </c>
       <c r="J144" s="13">
         <f t="shared" si="2"/>
-        <v>0.51745629423817097</v>
+        <v>0.51745629423817108</v>
       </c>
       <c r="K144" s="13">
         <f t="shared" si="2"/>
-        <v>0.83554720719517295</v>
+        <v>0.83554720719517328</v>
       </c>
       <c r="L144" s="13">
         <f t="shared" si="2"/>
-        <v>0.71695397760077995</v>
+        <v>0.7169539776007795</v>
       </c>
       <c r="M144" s="13">
         <f t="shared" si="2"/>
-        <v>0.75145945147161097</v>
-      </c>
-    </row>
-    <row r="145" spans="1:13" ht="15.5">
-      <c r="A145" s="104"/>
+        <v>0.75145945147161064</v>
+      </c>
+    </row>
+    <row r="145" spans="1:13" ht="15">
+      <c r="A145" s="100"/>
       <c r="B145" s="78" t="s">
         <v>26</v>
       </c>
       <c r="C145" s="13">
         <f t="shared" si="1"/>
-        <v>0.77397452513385601</v>
+        <v>0.77397452513385612</v>
       </c>
       <c r="D145" s="13">
         <f t="shared" si="1"/>
-        <v>0.65924849652756301</v>
+        <v>0.65924849652756268</v>
       </c>
       <c r="E145" s="13">
         <f t="shared" ref="E145:M145" si="3">AVERAGE(E5,E33,E61,E89,E117)</f>
-        <v>0.72589979107006897</v>
+        <v>0.72589979107006941</v>
       </c>
       <c r="F145" s="13">
         <f t="shared" si="3"/>
-        <v>0.76360283627818604</v>
+        <v>0.76360283627818559</v>
       </c>
       <c r="G145" s="13">
         <f t="shared" si="3"/>
-        <v>0.74116349899183598</v>
+        <v>0.74116349899183631</v>
       </c>
       <c r="H145" s="13">
         <f t="shared" si="3"/>
-        <v>0.49211962246236401</v>
+        <v>0.49211962246236418</v>
       </c>
       <c r="I145" s="13">
         <f t="shared" si="3"/>
-        <v>0.51617707952746295</v>
+        <v>0.51617707952746283</v>
       </c>
       <c r="J145" s="13">
         <f t="shared" si="3"/>
-        <v>0.50168314669256198</v>
+        <v>0.50168314669256242</v>
       </c>
       <c r="K145" s="13">
         <f t="shared" si="3"/>
-        <v>0.83033273915626804</v>
+        <v>0.83033273915626826</v>
       </c>
       <c r="L145" s="13">
         <f t="shared" si="3"/>
-        <v>0.69520790740267502</v>
+        <v>0.69520790740267469</v>
       </c>
       <c r="M145" s="13">
         <f t="shared" si="3"/>
-        <v>0.73489884389828997</v>
-      </c>
-    </row>
-    <row r="146" spans="1:13" ht="15.5">
-      <c r="A146" s="104"/>
+        <v>0.73489884389828974</v>
+      </c>
+    </row>
+    <row r="146" spans="1:13" ht="15">
+      <c r="A146" s="100"/>
       <c r="B146" s="78" t="s">
         <v>27</v>
       </c>
       <c r="C146" s="13">
         <f t="shared" si="1"/>
-        <v>0.75716705492657399</v>
+        <v>0.75716705492657366</v>
       </c>
       <c r="D146" s="13">
         <f t="shared" si="1"/>
-        <v>0.64718987441397202</v>
+        <v>0.6471898744139718</v>
       </c>
       <c r="E146" s="13">
         <f t="shared" ref="E146:M146" si="4">AVERAGE(E6,E34,E62,E90,E118)</f>
-        <v>0.74038664843928004</v>
+        <v>0.74038664843927982</v>
       </c>
       <c r="F146" s="13">
         <f t="shared" si="4"/>
-        <v>0.76346206201976397</v>
+        <v>0.7634620620197643</v>
       </c>
       <c r="G146" s="13">
         <f t="shared" si="4"/>
@@ -8965,37 +8980,37 @@
       </c>
       <c r="H146" s="13">
         <f t="shared" si="4"/>
-        <v>0.472564802146483</v>
+        <v>0.47256480214648322</v>
       </c>
       <c r="I146" s="13">
         <f t="shared" si="4"/>
-        <v>0.52297243535095195</v>
+        <v>0.52297243535095139</v>
       </c>
       <c r="J146" s="13">
         <f t="shared" si="4"/>
-        <v>0.49286320525020699</v>
+        <v>0.49286320525020744</v>
       </c>
       <c r="K146" s="13">
         <f t="shared" si="4"/>
-        <v>0.81910126910126901</v>
+        <v>0.8191012691012689</v>
       </c>
       <c r="L146" s="13">
         <f t="shared" si="4"/>
-        <v>0.63792041130703903</v>
+        <v>0.63792041130703914</v>
       </c>
       <c r="M146" s="13">
         <f t="shared" si="4"/>
-        <v>0.70067453767466903</v>
-      </c>
-    </row>
-    <row r="147" spans="1:13" ht="15.5">
-      <c r="A147" s="104"/>
+        <v>0.70067453767466858</v>
+      </c>
+    </row>
+    <row r="147" spans="1:13" ht="15">
+      <c r="A147" s="100"/>
       <c r="B147" s="78" t="s">
         <v>28</v>
       </c>
       <c r="C147" s="13">
         <f t="shared" si="1"/>
-        <v>0.76821144422902699</v>
+        <v>0.76821144422902721</v>
       </c>
       <c r="D147" s="13">
         <f t="shared" si="1"/>
@@ -9003,23 +9018,23 @@
       </c>
       <c r="E147" s="13">
         <f t="shared" ref="E147:M147" si="5">AVERAGE(E7,E35,E63,E91,E119)</f>
-        <v>0.72875291224942895</v>
+        <v>0.72875291224942917</v>
       </c>
       <c r="F147" s="13">
         <f t="shared" si="5"/>
-        <v>0.80400002079301702</v>
+        <v>0.80400002079301713</v>
       </c>
       <c r="G147" s="13">
         <f t="shared" si="5"/>
-        <v>0.76309220073568595</v>
+        <v>0.76309220073568551</v>
       </c>
       <c r="H147" s="13">
         <f t="shared" si="5"/>
-        <v>0.49728021742613698</v>
+        <v>0.49728021742613721</v>
       </c>
       <c r="I147" s="13">
         <f t="shared" si="5"/>
-        <v>0.50815856777493595</v>
+        <v>0.50815856777493584</v>
       </c>
       <c r="J147" s="13">
         <f t="shared" si="5"/>
@@ -9031,121 +9046,121 @@
       </c>
       <c r="L147" s="13">
         <f t="shared" si="5"/>
-        <v>0.69606532948102695</v>
+        <v>0.69606532948102684</v>
       </c>
       <c r="M147" s="13">
         <f t="shared" si="5"/>
-        <v>0.72794770495476102</v>
-      </c>
-    </row>
-    <row r="148" spans="1:13" ht="15.5">
-      <c r="A148" s="104"/>
+        <v>0.72794770495476158</v>
+      </c>
+    </row>
+    <row r="148" spans="1:13" ht="15">
+      <c r="A148" s="100"/>
       <c r="B148" s="78" t="s">
         <v>29</v>
       </c>
       <c r="C148" s="13">
         <f t="shared" si="1"/>
-        <v>0.76963065979001899</v>
+        <v>0.7696306597900191</v>
       </c>
       <c r="D148" s="13">
         <f t="shared" si="1"/>
-        <v>0.66391155774917499</v>
+        <v>0.66391155774917476</v>
       </c>
       <c r="E148" s="13">
         <f t="shared" ref="E148:M148" si="6">AVERAGE(E8,E36,E64,E92,E120)</f>
-        <v>0.73404264036616995</v>
+        <v>0.73404264036616962</v>
       </c>
       <c r="F148" s="13">
         <f t="shared" si="6"/>
-        <v>0.79387941493204595</v>
+        <v>0.79387941493204617</v>
       </c>
       <c r="G148" s="13">
         <f t="shared" si="6"/>
-        <v>0.76063748261806496</v>
+        <v>0.76063748261806463</v>
       </c>
       <c r="H148" s="13">
         <f t="shared" si="6"/>
-        <v>0.49836139533317098</v>
+        <v>0.49836139533317142</v>
       </c>
       <c r="I148" s="13">
         <f t="shared" si="6"/>
-        <v>0.51739089838833996</v>
+        <v>0.5173908983883404</v>
       </c>
       <c r="J148" s="13">
         <f t="shared" si="6"/>
-        <v>0.50524282071794102</v>
+        <v>0.5052428207179408</v>
       </c>
       <c r="K148" s="13">
         <f t="shared" si="6"/>
-        <v>0.813710381122146</v>
+        <v>0.81371038112214578</v>
       </c>
       <c r="L148" s="13">
         <f t="shared" si="6"/>
-        <v>0.69381334535404304</v>
+        <v>0.69381334535404282</v>
       </c>
       <c r="M148" s="13">
         <f t="shared" si="6"/>
-        <v>0.72585436991151897</v>
-      </c>
-    </row>
-    <row r="149" spans="1:13" ht="15.5">
-      <c r="A149" s="104"/>
+        <v>0.72585436991151919</v>
+      </c>
+    </row>
+    <row r="149" spans="1:13" ht="15">
+      <c r="A149" s="100"/>
       <c r="B149" s="78" t="s">
         <v>30</v>
       </c>
       <c r="C149" s="13">
         <f t="shared" si="1"/>
-        <v>0.76176018106703403</v>
+        <v>0.76176018106703425</v>
       </c>
       <c r="D149" s="13">
         <f t="shared" si="1"/>
-        <v>0.66160428888981704</v>
+        <v>0.66160428888981737</v>
       </c>
       <c r="E149" s="13">
         <f t="shared" ref="E149:M149" si="7">AVERAGE(E9,E37,E65,E93,E121)</f>
-        <v>0.75845258474011501</v>
+        <v>0.75845258474011545</v>
       </c>
       <c r="F149" s="13">
         <f t="shared" si="7"/>
-        <v>0.79928240725187405</v>
+        <v>0.79928240725187416</v>
       </c>
       <c r="G149" s="13">
         <f t="shared" si="7"/>
-        <v>0.77663732779526795</v>
+        <v>0.77663732779526784</v>
       </c>
       <c r="H149" s="13">
         <f t="shared" si="7"/>
-        <v>0.47962728167697299</v>
+        <v>0.47962728167697338</v>
       </c>
       <c r="I149" s="13">
         <f t="shared" si="7"/>
-        <v>0.51205943246863905</v>
+        <v>0.51205943246863916</v>
       </c>
       <c r="J149" s="13">
         <f t="shared" si="7"/>
-        <v>0.48800476640364299</v>
+        <v>0.48800476640364243</v>
       </c>
       <c r="K149" s="13">
         <f t="shared" si="7"/>
-        <v>0.80714627690586904</v>
+        <v>0.8071462769058686</v>
       </c>
       <c r="L149" s="13">
         <f t="shared" si="7"/>
-        <v>0.69055051241824505</v>
+        <v>0.69055051241824461</v>
       </c>
       <c r="M149" s="13">
         <f t="shared" si="7"/>
-        <v>0.72017077247054195</v>
-      </c>
-    </row>
-    <row r="150" spans="1:13" ht="15.5">
-      <c r="A150" s="104"/>
+        <v>0.7201707724705424</v>
+      </c>
+    </row>
+    <row r="150" spans="1:13" ht="15">
+      <c r="A150" s="100"/>
       <c r="B150" s="78" t="s">
         <v>31</v>
       </c>
       <c r="C150" s="13">
         <f t="shared" si="1"/>
-        <v>0.75922181403389</v>
+        <v>0.75922181403388966</v>
       </c>
       <c r="D150" s="13">
         <f t="shared" si="1"/>
@@ -9153,53 +9168,53 @@
       </c>
       <c r="E150" s="13">
         <f t="shared" ref="E150:M150" si="8">AVERAGE(E10,E38,E66,E94,E122)</f>
-        <v>0.72618087156324096</v>
+        <v>0.72618087156324085</v>
       </c>
       <c r="F150" s="13">
         <f t="shared" si="8"/>
-        <v>0.78250010458721897</v>
+        <v>0.78250010458721864</v>
       </c>
       <c r="G150" s="13">
         <f t="shared" si="8"/>
-        <v>0.75141291683227096</v>
+        <v>0.75141291683227118</v>
       </c>
       <c r="H150" s="13">
         <f t="shared" si="8"/>
-        <v>0.48075200314689898</v>
+        <v>0.48075200314689936</v>
       </c>
       <c r="I150" s="13">
         <f t="shared" si="8"/>
-        <v>0.51676531482158095</v>
+        <v>0.51676531482158039</v>
       </c>
       <c r="J150" s="13">
         <f t="shared" si="8"/>
-        <v>0.49390747641097399</v>
+        <v>0.49390747641097404</v>
       </c>
       <c r="K150" s="13">
         <f t="shared" si="8"/>
-        <v>0.81360089186176099</v>
+        <v>0.81360089186176121</v>
       </c>
       <c r="L150" s="13">
         <f t="shared" si="8"/>
-        <v>0.65400781523601303</v>
+        <v>0.65400781523601259</v>
       </c>
       <c r="M150" s="13">
         <f t="shared" si="8"/>
         <v>0.70592246964281302</v>
       </c>
     </row>
-    <row r="151" spans="1:13" ht="15.5">
-      <c r="A151" s="104"/>
+    <row r="151" spans="1:13" ht="15">
+      <c r="A151" s="100"/>
       <c r="B151" s="78" t="s">
         <v>32</v>
       </c>
       <c r="C151" s="13">
         <f t="shared" si="1"/>
-        <v>0.76011243736847001</v>
+        <v>0.76011243736846978</v>
       </c>
       <c r="D151" s="13">
         <f t="shared" si="1"/>
-        <v>0.65254207189254398</v>
+        <v>0.6525420718925441</v>
       </c>
       <c r="E151" s="13">
         <f t="shared" ref="E151:M151" si="9">AVERAGE(E11,E39,E67,E95,E123)</f>
@@ -9207,39 +9222,39 @@
       </c>
       <c r="F151" s="13">
         <f t="shared" si="9"/>
-        <v>0.77917484596784203</v>
+        <v>0.77917484596784237</v>
       </c>
       <c r="G151" s="13">
         <f t="shared" si="9"/>
-        <v>0.75397880070777201</v>
+        <v>0.75397880070777212</v>
       </c>
       <c r="H151" s="13">
         <f t="shared" si="9"/>
-        <v>0.48316701771923198</v>
+        <v>0.48316701771923221</v>
       </c>
       <c r="I151" s="13">
         <f t="shared" si="9"/>
-        <v>0.52290910567125404</v>
+        <v>0.52290910567125359</v>
       </c>
       <c r="J151" s="13">
         <f t="shared" si="9"/>
-        <v>0.497766404810489</v>
+        <v>0.49776640481048878</v>
       </c>
       <c r="K151" s="13">
         <f t="shared" si="9"/>
-        <v>0.81046153846153801</v>
+        <v>0.81046153846153834</v>
       </c>
       <c r="L151" s="13">
         <f t="shared" si="9"/>
-        <v>0.66388050042119795</v>
+        <v>0.66388050042119784</v>
       </c>
       <c r="M151" s="13">
         <f t="shared" si="9"/>
-        <v>0.70588101015937199</v>
-      </c>
-    </row>
-    <row r="152" spans="1:13" ht="15.5">
-      <c r="A152" s="104"/>
+        <v>0.70588101015937177</v>
+      </c>
+    </row>
+    <row r="152" spans="1:13" ht="15">
+      <c r="A152" s="100"/>
       <c r="B152" s="78" t="s">
         <v>33</v>
       </c>
@@ -9249,53 +9264,53 @@
       </c>
       <c r="D152" s="13">
         <f t="shared" si="1"/>
-        <v>0.65859215686550898</v>
+        <v>0.6585921568655092</v>
       </c>
       <c r="E152" s="13">
         <f t="shared" ref="E152:M152" si="10">AVERAGE(E12,E40,E68,E96,E124)</f>
-        <v>0.74494655332403603</v>
+        <v>0.74494655332403636</v>
       </c>
       <c r="F152" s="13">
         <f t="shared" si="10"/>
-        <v>0.79248304104074296</v>
+        <v>0.79248304104074341</v>
       </c>
       <c r="G152" s="13">
         <f t="shared" si="10"/>
-        <v>0.76637706539473105</v>
+        <v>0.76637706539473138</v>
       </c>
       <c r="H152" s="13">
         <f t="shared" si="10"/>
-        <v>0.48242982183126598</v>
+        <v>0.48242982183126648</v>
       </c>
       <c r="I152" s="13">
         <f t="shared" si="10"/>
-        <v>0.51727154629967897</v>
+        <v>0.51727154629967875</v>
       </c>
       <c r="J152" s="13">
         <f t="shared" si="10"/>
-        <v>0.49461047099779398</v>
+        <v>0.49461047099779359</v>
       </c>
       <c r="K152" s="13">
         <f t="shared" si="10"/>
-        <v>0.80728205128205099</v>
+        <v>0.80728205128205111</v>
       </c>
       <c r="L152" s="13">
         <f t="shared" si="10"/>
-        <v>0.676369041703344</v>
+        <v>0.67636904170334355</v>
       </c>
       <c r="M152" s="13">
         <f t="shared" si="10"/>
-        <v>0.71478893420400302</v>
-      </c>
-    </row>
-    <row r="153" spans="1:13" ht="15.5">
-      <c r="A153" s="104"/>
+        <v>0.7147889342040028</v>
+      </c>
+    </row>
+    <row r="153" spans="1:13" ht="15">
+      <c r="A153" s="100"/>
       <c r="B153" s="78" t="s">
         <v>34</v>
       </c>
       <c r="C153" s="13">
         <f t="shared" si="1"/>
-        <v>0.74501145590249995</v>
+        <v>0.7450114559025004</v>
       </c>
       <c r="D153" s="13">
         <f t="shared" si="1"/>
@@ -9303,53 +9318,53 @@
       </c>
       <c r="E153" s="13">
         <f t="shared" ref="E153:M153" si="11">AVERAGE(E13,E41,E69,E97,E125)</f>
-        <v>0.75655835572742502</v>
+        <v>0.75655835572742536</v>
       </c>
       <c r="F153" s="13">
         <f t="shared" si="11"/>
-        <v>0.74688056073238096</v>
+        <v>0.74688056073238052</v>
       </c>
       <c r="G153" s="13">
         <f t="shared" si="11"/>
-        <v>0.74853029762071199</v>
+        <v>0.74853029762071233</v>
       </c>
       <c r="H153" s="13">
         <f t="shared" si="11"/>
-        <v>0.45792451771542902</v>
+        <v>0.4579245177154293</v>
       </c>
       <c r="I153" s="13">
         <f t="shared" si="11"/>
-        <v>0.52648520277676303</v>
+        <v>0.52648520277676258</v>
       </c>
       <c r="J153" s="13">
         <f t="shared" si="11"/>
-        <v>0.480903836484044</v>
+        <v>0.48090383648404444</v>
       </c>
       <c r="K153" s="13">
         <f t="shared" si="11"/>
-        <v>0.80235310498468304</v>
+        <v>0.8023531049846836</v>
       </c>
       <c r="L153" s="13">
         <f t="shared" si="11"/>
-        <v>0.63745294649364403</v>
+        <v>0.63745294649364381</v>
       </c>
       <c r="M153" s="13">
         <f t="shared" si="11"/>
-        <v>0.68823456063566302</v>
-      </c>
-    </row>
-    <row r="154" spans="1:13" ht="15.5">
-      <c r="A154" s="104"/>
+        <v>0.68823456063566235</v>
+      </c>
+    </row>
+    <row r="154" spans="1:13" ht="15">
+      <c r="A154" s="100"/>
       <c r="B154" s="78" t="s">
         <v>35</v>
       </c>
       <c r="C154" s="13">
         <f t="shared" si="1"/>
-        <v>0.777703160210093</v>
+        <v>0.77770316021009267</v>
       </c>
       <c r="D154" s="13">
         <f t="shared" si="1"/>
-        <v>0.66877485031793305</v>
+        <v>0.66877485031793338</v>
       </c>
       <c r="E154" s="13">
         <f t="shared" ref="E154:M154" si="12">AVERAGE(E14,E42,E70,E98,E126)</f>
@@ -9365,107 +9380,107 @@
       </c>
       <c r="H154" s="13">
         <f t="shared" si="12"/>
-        <v>0.49700801176315001</v>
+        <v>0.4970080117631504</v>
       </c>
       <c r="I154" s="13">
         <f t="shared" si="12"/>
-        <v>0.51271505703730702</v>
+        <v>0.51271505703730713</v>
       </c>
       <c r="J154" s="13">
         <f t="shared" si="12"/>
-        <v>0.50212313581074797</v>
+        <v>0.50212313581074786</v>
       </c>
       <c r="K154" s="13">
         <f t="shared" si="12"/>
-        <v>0.82029656274980001</v>
+        <v>0.8202965627497999</v>
       </c>
       <c r="L154" s="13">
         <f t="shared" si="12"/>
-        <v>0.71876114814341496</v>
+        <v>0.71876114814341518</v>
       </c>
       <c r="M154" s="13">
         <f t="shared" si="12"/>
-        <v>0.74428337481269002</v>
-      </c>
-    </row>
-    <row r="155" spans="1:13" ht="15.5">
-      <c r="A155" s="104"/>
+        <v>0.74428337481268958</v>
+      </c>
+    </row>
+    <row r="155" spans="1:13" ht="15">
+      <c r="A155" s="100"/>
       <c r="B155" s="78" t="s">
         <v>36</v>
       </c>
       <c r="C155" s="13">
         <f t="shared" si="1"/>
-        <v>0.75299531942334097</v>
+        <v>0.75299531942334064</v>
       </c>
       <c r="D155" s="13">
         <f t="shared" si="1"/>
-        <v>0.64144812558174902</v>
+        <v>0.6414481255817488</v>
       </c>
       <c r="E155" s="13">
         <f t="shared" ref="E155:M155" si="13">AVERAGE(E15,E43,E71,E99,E127)</f>
-        <v>0.72636099367283102</v>
+        <v>0.72636099367283125</v>
       </c>
       <c r="F155" s="13">
         <f t="shared" si="13"/>
-        <v>0.72641436026618</v>
+        <v>0.72641436026618023</v>
       </c>
       <c r="G155" s="13">
         <f t="shared" si="13"/>
-        <v>0.72133802348414899</v>
+        <v>0.72133802348414888</v>
       </c>
       <c r="H155" s="13">
         <f t="shared" si="13"/>
-        <v>0.466165827622055</v>
+        <v>0.46616582762205505</v>
       </c>
       <c r="I155" s="13">
         <f t="shared" si="13"/>
-        <v>0.53634514675435396</v>
+        <v>0.53634514675435363</v>
       </c>
       <c r="J155" s="13">
         <f t="shared" si="13"/>
-        <v>0.49452065842405701</v>
+        <v>0.49452065842405679</v>
       </c>
       <c r="K155" s="13">
         <f t="shared" si="13"/>
-        <v>0.831373214907698</v>
+        <v>0.83137321490769767</v>
       </c>
       <c r="L155" s="13">
         <f t="shared" si="13"/>
-        <v>0.64550410076572795</v>
+        <v>0.64550410076572828</v>
       </c>
       <c r="M155" s="13">
         <f t="shared" si="13"/>
-        <v>0.70848569483704005</v>
-      </c>
-    </row>
-    <row r="156" spans="1:13" ht="15.5">
-      <c r="A156" s="104"/>
+        <v>0.70848569483704027</v>
+      </c>
+    </row>
+    <row r="156" spans="1:13" ht="15">
+      <c r="A156" s="100"/>
       <c r="B156" s="78" t="s">
         <v>22</v>
       </c>
       <c r="C156" s="13">
         <f>AVERAGE(C16,C44,C72,C100,C128)</f>
-        <v>0.76239113218385102</v>
+        <v>0.76239113218385079</v>
       </c>
       <c r="D156" s="13">
         <f>AVERAGE(D16,D44,D72,D100,D128)</f>
-        <v>0.65611289548363905</v>
+        <v>0.65611289548363927</v>
       </c>
       <c r="E156" s="13">
         <f t="shared" ref="E156:M156" si="14">AVERAGE(E16,E44,E72,E100,E128)</f>
-        <v>0.73794972838052297</v>
+        <v>0.73794972838052364</v>
       </c>
       <c r="F156" s="13">
         <f t="shared" si="14"/>
-        <v>0.77646899175013395</v>
+        <v>0.77646899175013373</v>
       </c>
       <c r="G156" s="13">
         <f t="shared" si="14"/>
-        <v>0.75393737044965603</v>
+        <v>0.75393737044965614</v>
       </c>
       <c r="H156" s="13">
         <f t="shared" si="14"/>
-        <v>0.48478541569557498</v>
+        <v>0.48478541569557476</v>
       </c>
       <c r="I156" s="13">
         <f t="shared" si="14"/>
@@ -9473,53 +9488,53 @@
       </c>
       <c r="J156" s="13">
         <f t="shared" si="14"/>
-        <v>0.49707157160201398</v>
+        <v>0.49707157160201437</v>
       </c>
       <c r="K156" s="13">
         <f t="shared" si="14"/>
-        <v>0.81747722637766596</v>
+        <v>0.81747722637766618</v>
       </c>
       <c r="L156" s="13">
         <f t="shared" si="14"/>
-        <v>0.67721289566045795</v>
+        <v>0.67721289566045806</v>
       </c>
       <c r="M156" s="13">
         <f t="shared" si="14"/>
-        <v>0.71877866193323103</v>
-      </c>
-    </row>
-    <row r="157" spans="1:13" ht="15.5">
-      <c r="A157" s="104"/>
+        <v>0.71877866193323181</v>
+      </c>
+    </row>
+    <row r="157" spans="1:13" ht="15">
+      <c r="A157" s="100"/>
       <c r="B157" s="79" t="s">
         <v>37</v>
       </c>
       <c r="C157" s="80">
         <f t="shared" ref="C157:D170" si="15">AVERAGE(C17,C45,C73,C101,C129)</f>
-        <v>0.774189760182736</v>
+        <v>0.77418976018273589</v>
       </c>
       <c r="D157" s="80">
         <f t="shared" si="15"/>
-        <v>0.67913929906688897</v>
+        <v>0.67913929906688941</v>
       </c>
       <c r="E157" s="80">
         <f t="shared" ref="E157:M157" si="16">AVERAGE(E17,E45,E73,E101,E129)</f>
-        <v>0.82050184232328904</v>
+        <v>0.82050184232328927</v>
       </c>
       <c r="F157" s="80">
         <f t="shared" si="16"/>
-        <v>0.71970429011103698</v>
+        <v>0.71970429011103676</v>
       </c>
       <c r="G157" s="80">
         <f t="shared" si="16"/>
-        <v>0.75773838856722897</v>
+        <v>0.75773838856722942</v>
       </c>
       <c r="H157" s="80">
         <f t="shared" si="16"/>
-        <v>0.52429976348829599</v>
+        <v>0.52429976348829643</v>
       </c>
       <c r="I157" s="80">
         <f t="shared" si="16"/>
-        <v>0.59131652661064404</v>
+        <v>0.59131652661064393</v>
       </c>
       <c r="J157" s="80">
         <f t="shared" si="16"/>
@@ -9527,75 +9542,75 @@
       </c>
       <c r="K157" s="80">
         <f t="shared" si="16"/>
-        <v>0.81370231394621595</v>
+        <v>0.81370231394621639</v>
       </c>
       <c r="L157" s="80">
         <f t="shared" si="16"/>
-        <v>0.68246558835221605</v>
+        <v>0.68246558835221593</v>
       </c>
       <c r="M157" s="80">
         <f t="shared" si="16"/>
-        <v>0.72697513113895595</v>
-      </c>
-    </row>
-    <row r="158" spans="1:13" ht="15.5">
-      <c r="A158" s="104"/>
+        <v>0.72697513113895607</v>
+      </c>
+    </row>
+    <row r="158" spans="1:13" ht="15">
+      <c r="A158" s="100"/>
       <c r="B158" s="79" t="s">
         <v>38</v>
       </c>
       <c r="C158" s="80">
         <f t="shared" si="15"/>
-        <v>0.79514544528554598</v>
+        <v>0.7951454452855462</v>
       </c>
       <c r="D158" s="80">
         <f t="shared" si="15"/>
-        <v>0.69386559344410403</v>
+        <v>0.69386559344410448</v>
       </c>
       <c r="E158" s="80">
         <f t="shared" ref="E158:M158" si="17">AVERAGE(E18,E46,E74,E102,E130)</f>
-        <v>0.79952716297786697</v>
+        <v>0.79952716297786708</v>
       </c>
       <c r="F158" s="80">
         <f t="shared" si="17"/>
-        <v>0.74786986319493998</v>
+        <v>0.74786986319494031</v>
       </c>
       <c r="G158" s="80">
         <f t="shared" si="17"/>
-        <v>0.76099944731024305</v>
+        <v>0.76099944731024327</v>
       </c>
       <c r="H158" s="80">
         <f t="shared" si="17"/>
-        <v>0.55305514157973201</v>
+        <v>0.55305514157973157</v>
       </c>
       <c r="I158" s="80">
         <f t="shared" si="17"/>
-        <v>0.67537815126050404</v>
+        <v>0.67537815126050393</v>
       </c>
       <c r="J158" s="80">
         <f t="shared" si="17"/>
-        <v>0.60573101698810305</v>
+        <v>0.60573101698810328</v>
       </c>
       <c r="K158" s="80">
         <f t="shared" si="17"/>
-        <v>0.90949877639807797</v>
+        <v>0.90949877639807841</v>
       </c>
       <c r="L158" s="80">
         <f t="shared" si="17"/>
-        <v>0.60826475849731598</v>
+        <v>0.60826475849731643</v>
       </c>
       <c r="M158" s="80">
         <f t="shared" si="17"/>
-        <v>0.714866316033967</v>
-      </c>
-    </row>
-    <row r="159" spans="1:13" ht="15.5">
-      <c r="A159" s="104"/>
+        <v>0.71486631603396733</v>
+      </c>
+    </row>
+    <row r="159" spans="1:13" ht="15">
+      <c r="A159" s="100"/>
       <c r="B159" s="79" t="s">
         <v>39</v>
       </c>
       <c r="C159" s="80">
         <f t="shared" si="15"/>
-        <v>0.77756520144270003</v>
+        <v>0.77756520144270047</v>
       </c>
       <c r="D159" s="80">
         <f t="shared" si="15"/>
@@ -9603,7 +9618,7 @@
       </c>
       <c r="E159" s="80">
         <f t="shared" ref="E159:M159" si="18">AVERAGE(E19,E47,E75,E103,E131)</f>
-        <v>0.79166431080421995</v>
+        <v>0.79166431080422039</v>
       </c>
       <c r="F159" s="80">
         <f t="shared" si="18"/>
@@ -9611,7 +9626,7 @@
       </c>
       <c r="G159" s="80">
         <f t="shared" si="18"/>
-        <v>0.76084585064450805</v>
+        <v>0.76084585064450794</v>
       </c>
       <c r="H159" s="80">
         <f t="shared" si="18"/>
@@ -9619,111 +9634,111 @@
       </c>
       <c r="I159" s="80">
         <f t="shared" si="18"/>
-        <v>0.58352941176470596</v>
+        <v>0.58352941176470563</v>
       </c>
       <c r="J159" s="80">
         <f t="shared" si="18"/>
-        <v>0.54752598252502704</v>
+        <v>0.54752598252502716</v>
       </c>
       <c r="K159" s="80">
         <f t="shared" si="18"/>
-        <v>0.85361174772939497</v>
+        <v>0.85361174772939474</v>
       </c>
       <c r="L159" s="80">
         <f t="shared" si="18"/>
-        <v>0.65874602464718701</v>
+        <v>0.65874602464718746</v>
       </c>
       <c r="M159" s="80">
         <f t="shared" si="18"/>
-        <v>0.73102869127481496</v>
-      </c>
-    </row>
-    <row r="160" spans="1:13" ht="15.5">
-      <c r="A160" s="104"/>
+        <v>0.73102869127481462</v>
+      </c>
+    </row>
+    <row r="160" spans="1:13" ht="15">
+      <c r="A160" s="100"/>
       <c r="B160" s="79" t="s">
         <v>40</v>
       </c>
       <c r="C160" s="80">
         <f t="shared" si="15"/>
-        <v>0.78199414389276001</v>
+        <v>0.78199414389275979</v>
       </c>
       <c r="D160" s="80">
         <f t="shared" si="15"/>
-        <v>0.68321948153746803</v>
+        <v>0.68321948153746814</v>
       </c>
       <c r="E160" s="80">
         <f t="shared" ref="E160:M160" si="19">AVERAGE(E20,E48,E76,E104,E132)</f>
-        <v>0.75855668583222702</v>
+        <v>0.75855668583222746</v>
       </c>
       <c r="F160" s="80">
         <f t="shared" si="19"/>
-        <v>0.78386785213410604</v>
+        <v>0.78386785213410559</v>
       </c>
       <c r="G160" s="80">
         <f t="shared" si="19"/>
-        <v>0.76763354704551301</v>
+        <v>0.76763354704551257</v>
       </c>
       <c r="H160" s="80">
         <f t="shared" si="19"/>
-        <v>0.530746720328652</v>
+        <v>0.53074672032865222</v>
       </c>
       <c r="I160" s="80">
         <f t="shared" si="19"/>
-        <v>0.56994397759103599</v>
+        <v>0.56994397759103621</v>
       </c>
       <c r="J160" s="80">
         <f t="shared" si="19"/>
-        <v>0.548320277766016</v>
+        <v>0.54832027776601566</v>
       </c>
       <c r="K160" s="80">
         <f t="shared" si="19"/>
-        <v>0.85577277110546102</v>
+        <v>0.85577277110546146</v>
       </c>
       <c r="L160" s="80">
         <f t="shared" si="19"/>
-        <v>0.66076152852315595</v>
+        <v>0.66076152852315628</v>
       </c>
       <c r="M160" s="80">
         <f t="shared" si="19"/>
-        <v>0.73370461980087598</v>
-      </c>
-    </row>
-    <row r="161" spans="1:13" ht="15.5">
-      <c r="A161" s="104"/>
+        <v>0.73370461980087609</v>
+      </c>
+    </row>
+    <row r="161" spans="1:13" ht="15">
+      <c r="A161" s="100"/>
       <c r="B161" s="79" t="s">
         <v>41</v>
       </c>
       <c r="C161" s="80">
         <f t="shared" si="15"/>
-        <v>0.79075023869023198</v>
+        <v>0.79075023869023187</v>
       </c>
       <c r="D161" s="80">
         <f t="shared" si="15"/>
-        <v>0.68363712151151101</v>
+        <v>0.68363712151151057</v>
       </c>
       <c r="E161" s="80">
         <f t="shared" ref="E161:M161" si="20">AVERAGE(E21,E49,E77,E105,E133)</f>
-        <v>0.76001096090610099</v>
+        <v>0.76001096090610143</v>
       </c>
       <c r="F161" s="80">
         <f t="shared" si="20"/>
-        <v>0.76311026434865403</v>
+        <v>0.76311026434865414</v>
       </c>
       <c r="G161" s="80">
         <f t="shared" si="20"/>
-        <v>0.75781159453748004</v>
+        <v>0.75781159453748037</v>
       </c>
       <c r="H161" s="80">
         <f t="shared" si="20"/>
-        <v>0.51315696312837</v>
+        <v>0.51315696312836967</v>
       </c>
       <c r="I161" s="80">
         <f t="shared" si="20"/>
-        <v>0.58016806722688996</v>
+        <v>0.5801680672268904</v>
       </c>
       <c r="J161" s="80">
         <f t="shared" si="20"/>
-        <v>0.54229250264566697</v>
+        <v>0.54229250264566742</v>
       </c>
       <c r="K161" s="80">
         <f t="shared" si="20"/>
@@ -9731,21 +9746,21 @@
       </c>
       <c r="L161" s="80">
         <f t="shared" si="20"/>
-        <v>0.68082935798052102</v>
+        <v>0.68082935798052069</v>
       </c>
       <c r="M161" s="80">
         <f t="shared" si="20"/>
-        <v>0.75080726735138503</v>
-      </c>
-    </row>
-    <row r="162" spans="1:13" ht="15.5">
-      <c r="A162" s="104"/>
+        <v>0.75080726735138481</v>
+      </c>
+    </row>
+    <row r="162" spans="1:13" ht="15">
+      <c r="A162" s="100"/>
       <c r="B162" s="79" t="s">
         <v>42</v>
       </c>
       <c r="C162" s="80">
         <f t="shared" si="15"/>
-        <v>0.78119963906329104</v>
+        <v>0.78119963906329137</v>
       </c>
       <c r="D162" s="80">
         <f t="shared" si="15"/>
@@ -9761,65 +9776,65 @@
       </c>
       <c r="G162" s="80">
         <f t="shared" si="21"/>
-        <v>0.77163165660682198</v>
+        <v>0.77163165660682176</v>
       </c>
       <c r="H162" s="80">
         <f t="shared" si="21"/>
-        <v>0.51472638501568102</v>
+        <v>0.51472638501568091</v>
       </c>
       <c r="I162" s="80">
         <f t="shared" si="21"/>
-        <v>0.57705882352941196</v>
+        <v>0.57705882352941162</v>
       </c>
       <c r="J162" s="80">
         <f t="shared" si="21"/>
-        <v>0.54182708512706101</v>
+        <v>0.54182708512706057</v>
       </c>
       <c r="K162" s="80">
         <f t="shared" si="21"/>
-        <v>0.85076878413041401</v>
+        <v>0.85076878413041379</v>
       </c>
       <c r="L162" s="80">
         <f t="shared" si="21"/>
-        <v>0.66909647684356999</v>
+        <v>0.66909647684356965</v>
       </c>
       <c r="M162" s="80">
         <f t="shared" si="21"/>
-        <v>0.73309775345057704</v>
-      </c>
-    </row>
-    <row r="163" spans="1:13" ht="15.5">
-      <c r="A163" s="104"/>
+        <v>0.73309775345057737</v>
+      </c>
+    </row>
+    <row r="163" spans="1:13" ht="15">
+      <c r="A163" s="100"/>
       <c r="B163" s="79" t="s">
         <v>43</v>
       </c>
       <c r="C163" s="80">
         <f t="shared" si="15"/>
-        <v>0.78755544547403</v>
+        <v>0.78755544547403034</v>
       </c>
       <c r="D163" s="80">
         <f t="shared" si="15"/>
-        <v>0.68736434897812304</v>
+        <v>0.68736434897812271</v>
       </c>
       <c r="E163" s="80">
         <f t="shared" ref="E163:M163" si="22">AVERAGE(E23,E51,E79,E107,E135)</f>
-        <v>0.79302264495541797</v>
+        <v>0.79302264495541763</v>
       </c>
       <c r="F163" s="80">
         <f t="shared" si="22"/>
-        <v>0.74997280870559402</v>
+        <v>0.74997280870559369</v>
       </c>
       <c r="G163" s="80">
         <f t="shared" si="22"/>
-        <v>0.76423265623265602</v>
+        <v>0.76423265623265579</v>
       </c>
       <c r="H163" s="80">
         <f t="shared" si="22"/>
-        <v>0.52776106779185805</v>
+        <v>0.52776106779185816</v>
       </c>
       <c r="I163" s="80">
         <f t="shared" si="22"/>
-        <v>0.59016806722688997</v>
+        <v>0.59016806722689041</v>
       </c>
       <c r="J163" s="80">
         <f t="shared" si="22"/>
@@ -9827,19 +9842,19 @@
       </c>
       <c r="K163" s="80">
         <f t="shared" si="22"/>
-        <v>0.85624275542308304</v>
+        <v>0.85624275542308292</v>
       </c>
       <c r="L163" s="80">
         <f t="shared" si="22"/>
-        <v>0.67913064003180301</v>
+        <v>0.67913064003180279</v>
       </c>
       <c r="M163" s="80">
         <f t="shared" si="22"/>
-        <v>0.74341192259908795</v>
-      </c>
-    </row>
-    <row r="164" spans="1:13" ht="15.5">
-      <c r="A164" s="104"/>
+        <v>0.74341192259908806</v>
+      </c>
+    </row>
+    <row r="164" spans="1:13" ht="15">
+      <c r="A164" s="100"/>
       <c r="B164" s="79" t="s">
         <v>44</v>
       </c>
@@ -9849,11 +9864,11 @@
       </c>
       <c r="D164" s="80">
         <f t="shared" si="15"/>
-        <v>0.65751119011634795</v>
+        <v>0.65751119011634751</v>
       </c>
       <c r="E164" s="80">
         <f t="shared" ref="E164:M164" si="23">AVERAGE(E24,E52,E80,E108,E136)</f>
-        <v>0.81220332233473702</v>
+        <v>0.81220332233473658</v>
       </c>
       <c r="F164" s="80">
         <f t="shared" si="23"/>
@@ -9865,57 +9880,57 @@
       </c>
       <c r="H164" s="80">
         <f t="shared" si="23"/>
-        <v>0.49711255411255401</v>
+        <v>0.49711255411255378</v>
       </c>
       <c r="I164" s="80">
         <f t="shared" si="23"/>
-        <v>0.68770308123249302</v>
+        <v>0.68770308123249257</v>
       </c>
       <c r="J164" s="80">
         <f t="shared" si="23"/>
-        <v>0.56786152686551095</v>
+        <v>0.56786152686551072</v>
       </c>
       <c r="K164" s="80">
         <f t="shared" si="23"/>
-        <v>0.91197586726998503</v>
+        <v>0.91197586726998492</v>
       </c>
       <c r="L164" s="80">
         <f t="shared" si="23"/>
-        <v>0.52194804710793097</v>
+        <v>0.52194804710793075</v>
       </c>
       <c r="M164" s="80">
         <f t="shared" si="23"/>
-        <v>0.65048750048750004</v>
-      </c>
-    </row>
-    <row r="165" spans="1:13" ht="15.5">
-      <c r="A165" s="104"/>
+        <v>0.65048750048749993</v>
+      </c>
+    </row>
+    <row r="165" spans="1:13" ht="15">
+      <c r="A165" s="100"/>
       <c r="B165" s="79" t="s">
         <v>45</v>
       </c>
       <c r="C165" s="80">
         <f t="shared" si="15"/>
-        <v>0.78657263382464904</v>
+        <v>0.78657263382464926</v>
       </c>
       <c r="D165" s="80">
         <f t="shared" si="15"/>
-        <v>0.68538314601032502</v>
+        <v>0.68538314601032468</v>
       </c>
       <c r="E165" s="80">
         <f t="shared" ref="E165:M165" si="24">AVERAGE(E25,E53,E81,E109,E137)</f>
-        <v>0.771769157994323</v>
+        <v>0.77176915799432322</v>
       </c>
       <c r="F165" s="80">
         <f t="shared" si="24"/>
-        <v>0.76848323674949004</v>
+        <v>0.76848323674949026</v>
       </c>
       <c r="G165" s="80">
         <f t="shared" si="24"/>
-        <v>0.76494784312770803</v>
+        <v>0.76494784312770814</v>
       </c>
       <c r="H165" s="80">
         <f t="shared" si="24"/>
-        <v>0.52421680660101999</v>
+        <v>0.52421680660101955</v>
       </c>
       <c r="I165" s="80">
         <f t="shared" si="24"/>
@@ -9923,23 +9938,23 @@
       </c>
       <c r="J165" s="80">
         <f t="shared" si="24"/>
-        <v>0.55306202722986997</v>
+        <v>0.55306202722986963</v>
       </c>
       <c r="K165" s="80">
         <f t="shared" si="24"/>
-        <v>0.88184030571198702</v>
+        <v>0.88184030571198735</v>
       </c>
       <c r="L165" s="80">
         <f t="shared" si="24"/>
-        <v>0.65221986185648995</v>
+        <v>0.65221986185648961</v>
       </c>
       <c r="M165" s="80">
         <f t="shared" si="24"/>
-        <v>0.73813956767339595</v>
-      </c>
-    </row>
-    <row r="166" spans="1:13" ht="15.5">
-      <c r="A166" s="104"/>
+        <v>0.73813956767339606</v>
+      </c>
+    </row>
+    <row r="166" spans="1:13" ht="15">
+      <c r="A166" s="100"/>
       <c r="B166" s="79" t="s">
         <v>46</v>
       </c>
@@ -9949,23 +9964,23 @@
       </c>
       <c r="D166" s="80">
         <f t="shared" si="15"/>
-        <v>0.67351736572643595</v>
+        <v>0.67351736572643561</v>
       </c>
       <c r="E166" s="80">
         <f t="shared" ref="E166:M166" si="25">AVERAGE(E26,E54,E82,E110,E138)</f>
-        <v>0.77400222928086704</v>
+        <v>0.77400222928086659</v>
       </c>
       <c r="F166" s="80">
         <f t="shared" si="25"/>
-        <v>0.75396979211434201</v>
+        <v>0.75396979211434156</v>
       </c>
       <c r="G166" s="80">
         <f t="shared" si="25"/>
-        <v>0.75326585058989004</v>
+        <v>0.7532658505898896</v>
       </c>
       <c r="H166" s="80">
         <f t="shared" si="25"/>
-        <v>0.51667421735476404</v>
+        <v>0.51667421735476393</v>
       </c>
       <c r="I166" s="80">
         <f t="shared" si="25"/>
@@ -9973,29 +9988,29 @@
       </c>
       <c r="J166" s="80">
         <f t="shared" si="25"/>
-        <v>0.54828343433684701</v>
+        <v>0.54828343433684668</v>
       </c>
       <c r="K166" s="80">
         <f t="shared" si="25"/>
-        <v>0.87756272401433699</v>
+        <v>0.87756272401433666</v>
       </c>
       <c r="L166" s="80">
         <f t="shared" si="25"/>
-        <v>0.627007801629894</v>
+        <v>0.62700780162989445</v>
       </c>
       <c r="M166" s="80">
         <f t="shared" si="25"/>
-        <v>0.71900281225257101</v>
-      </c>
-    </row>
-    <row r="167" spans="1:13" ht="15.5">
-      <c r="A167" s="104"/>
+        <v>0.71900281225257079</v>
+      </c>
+    </row>
+    <row r="167" spans="1:13" ht="15">
+      <c r="A167" s="100"/>
       <c r="B167" s="79" t="s">
         <v>47</v>
       </c>
       <c r="C167" s="80">
         <f t="shared" si="15"/>
-        <v>0.780293442527903</v>
+        <v>0.78029344252790322</v>
       </c>
       <c r="D167" s="80">
         <f t="shared" si="15"/>
@@ -10003,19 +10018,19 @@
       </c>
       <c r="E167" s="80">
         <f t="shared" ref="E167:M167" si="26">AVERAGE(E27,E55,E83,E111,E139)</f>
-        <v>0.80159491193737797</v>
+        <v>0.80159491193737753</v>
       </c>
       <c r="F167" s="80">
         <f t="shared" si="26"/>
-        <v>0.76071551427588502</v>
+        <v>0.76071551427588546</v>
       </c>
       <c r="G167" s="80">
         <f t="shared" si="26"/>
-        <v>0.77086936614110502</v>
+        <v>0.77086936614110513</v>
       </c>
       <c r="H167" s="80">
         <f t="shared" si="26"/>
-        <v>0.52731160772172103</v>
+        <v>0.52731160772172136</v>
       </c>
       <c r="I167" s="80">
         <f t="shared" si="26"/>
@@ -10023,61 +10038,61 @@
       </c>
       <c r="J167" s="80">
         <f t="shared" si="26"/>
-        <v>0.553436898082736</v>
+        <v>0.55343689808273611</v>
       </c>
       <c r="K167" s="80">
         <f t="shared" si="26"/>
-        <v>0.83898445816478595</v>
+        <v>0.83898445816478584</v>
       </c>
       <c r="L167" s="80">
         <f t="shared" si="26"/>
-        <v>0.65596986185648998</v>
+        <v>0.65596986185648964</v>
       </c>
       <c r="M167" s="80">
         <f t="shared" si="26"/>
-        <v>0.719568218783601</v>
-      </c>
-    </row>
-    <row r="168" spans="1:13" ht="15.5">
-      <c r="A168" s="104"/>
+        <v>0.71956821878360055</v>
+      </c>
+    </row>
+    <row r="168" spans="1:13" ht="15">
+      <c r="A168" s="100"/>
       <c r="B168" s="79" t="s">
         <v>48</v>
       </c>
       <c r="C168" s="80">
         <f t="shared" si="15"/>
-        <v>0.77329267876952601</v>
+        <v>0.77329267876952557</v>
       </c>
       <c r="D168" s="80">
         <f t="shared" si="15"/>
-        <v>0.67119154704545303</v>
+        <v>0.67119154704545336</v>
       </c>
       <c r="E168" s="80">
         <f t="shared" ref="E168:M168" si="27">AVERAGE(E28,E56,E84,E112,E140)</f>
-        <v>0.79695637158973098</v>
+        <v>0.79695637158973143</v>
       </c>
       <c r="F168" s="80">
         <f t="shared" si="27"/>
-        <v>0.75127999824807701</v>
+        <v>0.75127999824807734</v>
       </c>
       <c r="G168" s="80">
         <f t="shared" si="27"/>
-        <v>0.76438711047406704</v>
+        <v>0.7643871104740666</v>
       </c>
       <c r="H168" s="80">
         <f t="shared" si="27"/>
-        <v>0.50251744122170905</v>
+        <v>0.50251744122170938</v>
       </c>
       <c r="I168" s="80">
         <f t="shared" si="27"/>
-        <v>0.60394957983193298</v>
+        <v>0.60394957983193254</v>
       </c>
       <c r="J168" s="80">
         <f t="shared" si="27"/>
-        <v>0.54604347003612097</v>
+        <v>0.54604347003612119</v>
       </c>
       <c r="K168" s="80">
         <f t="shared" si="27"/>
-        <v>0.88714285714285701</v>
+        <v>0.88714285714285723</v>
       </c>
       <c r="L168" s="80">
         <f t="shared" si="27"/>
@@ -10085,17 +10100,17 @@
       </c>
       <c r="M168" s="80">
         <f t="shared" si="27"/>
-        <v>0.70314406062617296</v>
-      </c>
-    </row>
-    <row r="169" spans="1:13" ht="15.5">
-      <c r="A169" s="104"/>
+        <v>0.70314406062617252</v>
+      </c>
+    </row>
+    <row r="169" spans="1:13" ht="15">
+      <c r="A169" s="100"/>
       <c r="B169" s="79" t="s">
         <v>49</v>
       </c>
       <c r="C169" s="80">
         <f t="shared" si="15"/>
-        <v>0.78093726509567596</v>
+        <v>0.78093726509567618</v>
       </c>
       <c r="D169" s="80">
         <f t="shared" si="15"/>
@@ -10103,19 +10118,19 @@
       </c>
       <c r="E169" s="80">
         <f t="shared" ref="E169:M169" si="28">AVERAGE(E29,E57,E85,E113,E141)</f>
-        <v>0.80944136251395304</v>
+        <v>0.80944136251395293</v>
       </c>
       <c r="F169" s="80">
         <f t="shared" si="28"/>
-        <v>0.73966612192831904</v>
+        <v>0.7396661219283186</v>
       </c>
       <c r="G169" s="80">
         <f t="shared" si="28"/>
-        <v>0.76347854036457496</v>
+        <v>0.76347854036457541</v>
       </c>
       <c r="H169" s="80">
         <f t="shared" si="28"/>
-        <v>0.51885505606913196</v>
+        <v>0.51885505606913207</v>
       </c>
       <c r="I169" s="80">
         <f t="shared" si="28"/>
@@ -10123,23 +10138,23 @@
       </c>
       <c r="J169" s="80">
         <f t="shared" si="28"/>
-        <v>0.55121713721049503</v>
+        <v>0.55121713721049548</v>
       </c>
       <c r="K169" s="80">
         <f t="shared" si="28"/>
-        <v>0.84865689865689897</v>
+        <v>0.84865689865689853</v>
       </c>
       <c r="L169" s="80">
         <f t="shared" si="28"/>
-        <v>0.66336998111707401</v>
+        <v>0.6633699811170739</v>
       </c>
       <c r="M169" s="80">
         <f t="shared" si="28"/>
-        <v>0.73019112322624702</v>
-      </c>
-    </row>
-    <row r="170" spans="1:13" ht="15.5">
-      <c r="A170" s="105"/>
+        <v>0.73019112322624657</v>
+      </c>
+    </row>
+    <row r="170" spans="1:13" ht="15">
+      <c r="A170" s="101"/>
       <c r="B170" s="79" t="s">
         <v>22</v>
       </c>
@@ -10153,19 +10168,19 @@
       </c>
       <c r="E170" s="80">
         <f t="shared" ref="E170:M170" si="29">AVERAGE(E30,E58,E86,E114,E142)</f>
-        <v>0.79004792178087802</v>
+        <v>0.79004792178087846</v>
       </c>
       <c r="F170" s="80">
         <f t="shared" si="29"/>
-        <v>0.75245215430645396</v>
+        <v>0.7524521543064544</v>
       </c>
       <c r="G170" s="80">
         <f t="shared" si="29"/>
-        <v>0.76246356881829402</v>
+        <v>0.76246356881829436</v>
       </c>
       <c r="H170" s="80">
         <f t="shared" si="29"/>
-        <v>0.52077596700961704</v>
+        <v>0.52077596700961715</v>
       </c>
       <c r="I170" s="80">
         <f t="shared" si="29"/>
@@ -10173,11 +10188,11 @@
       </c>
       <c r="J170" s="80">
         <f t="shared" si="29"/>
-        <v>0.55482724649311999</v>
+        <v>0.55482724649312021</v>
       </c>
       <c r="K170" s="80">
         <f t="shared" si="29"/>
-        <v>0.86556133083129305</v>
+        <v>0.86556133083129327</v>
       </c>
       <c r="L170" s="80">
         <f t="shared" si="29"/>
@@ -10185,16 +10200,11 @@
       </c>
       <c r="M170" s="80">
         <f t="shared" si="29"/>
-        <v>0.72264807574608902</v>
+        <v>0.72264807574608858</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A31:A58"/>
-    <mergeCell ref="A59:A86"/>
-    <mergeCell ref="A87:A114"/>
-    <mergeCell ref="A115:A142"/>
-    <mergeCell ref="A143:A170"/>
     <mergeCell ref="E1:G1"/>
     <mergeCell ref="H1:J1"/>
     <mergeCell ref="K1:M1"/>
@@ -10203,6 +10213,11 @@
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="D1:D2"/>
+    <mergeCell ref="A31:A58"/>
+    <mergeCell ref="A59:A86"/>
+    <mergeCell ref="A87:A114"/>
+    <mergeCell ref="A115:A142"/>
+    <mergeCell ref="A143:A170"/>
   </mergeCells>
   <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10218,63 +10233,63 @@
       <selection activeCell="G40" sqref="G40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.69140625" defaultRowHeight="15.5"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="39.4609375" customWidth="1"/>
-    <col min="3" max="13" width="9.4609375" customWidth="1"/>
+    <col min="2" max="2" width="39.46484375" customWidth="1"/>
+    <col min="3" max="13" width="9.46484375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="108" t="s">
+      <c r="A1" s="118" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="109"/>
-      <c r="C1" s="109"/>
-      <c r="D1" s="109"/>
-      <c r="E1" s="109"/>
-      <c r="F1" s="109"/>
-      <c r="G1" s="109"/>
-      <c r="H1" s="109"/>
-      <c r="I1" s="109"/>
-      <c r="J1" s="109"/>
-      <c r="K1" s="109"/>
-      <c r="L1" s="109"/>
-      <c r="M1" s="110"/>
+      <c r="B1" s="119"/>
+      <c r="C1" s="119"/>
+      <c r="D1" s="119"/>
+      <c r="E1" s="119"/>
+      <c r="F1" s="119"/>
+      <c r="G1" s="119"/>
+      <c r="H1" s="119"/>
+      <c r="I1" s="119"/>
+      <c r="J1" s="119"/>
+      <c r="K1" s="119"/>
+      <c r="L1" s="119"/>
+      <c r="M1" s="120"/>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="111" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="111" t="s">
+      <c r="A2" s="109" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="109" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="119" t="s">
+      <c r="C2" s="111" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="119" t="s">
+      <c r="D2" s="111" t="s">
         <v>51</v>
       </c>
-      <c r="E2" s="111" t="s">
+      <c r="E2" s="109" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="111"/>
-      <c r="G2" s="111"/>
-      <c r="H2" s="111" t="s">
+      <c r="F2" s="109"/>
+      <c r="G2" s="109"/>
+      <c r="H2" s="109" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="111"/>
-      <c r="J2" s="111"/>
-      <c r="K2" s="111" t="s">
+      <c r="I2" s="109"/>
+      <c r="J2" s="109"/>
+      <c r="K2" s="109" t="s">
         <v>6</v>
       </c>
-      <c r="L2" s="111"/>
-      <c r="M2" s="111"/>
+      <c r="L2" s="109"/>
+      <c r="M2" s="109"/>
     </row>
     <row r="3" spans="1:13">
-      <c r="A3" s="111"/>
-      <c r="B3" s="111"/>
-      <c r="C3" s="119"/>
-      <c r="D3" s="119"/>
+      <c r="A3" s="109"/>
+      <c r="B3" s="109"/>
+      <c r="C3" s="111"/>
+      <c r="D3" s="111"/>
       <c r="E3" s="45" t="s">
         <v>7</v>
       </c>
@@ -10704,7 +10719,7 @@
       </c>
     </row>
     <row r="14" spans="1:13">
-      <c r="A14" s="118" t="s">
+      <c r="A14" s="108" t="s">
         <v>54</v>
       </c>
       <c r="B14" s="43" t="s">
@@ -10712,43 +10727,43 @@
       </c>
       <c r="C14" s="44">
         <f>AVERAGE(C4,C6,C8,C10,C12)</f>
-        <v>0.75104802623561395</v>
+        <v>0.75104802623561406</v>
       </c>
       <c r="D14" s="44">
         <f t="shared" ref="D14:M14" si="0">AVERAGE(D4,D6,D8,D10,D12)</f>
-        <v>0.66525729194396199</v>
+        <v>0.66525729194396155</v>
       </c>
       <c r="E14" s="44">
         <f t="shared" si="0"/>
-        <v>0.65581307383938903</v>
+        <v>0.65581307383938925</v>
       </c>
       <c r="F14" s="44">
         <f t="shared" si="0"/>
-        <v>0.889816951490913</v>
+        <v>0.88981695149091278</v>
       </c>
       <c r="G14" s="44">
         <f t="shared" si="0"/>
-        <v>0.737667791027385</v>
+        <v>0.73766779102738522</v>
       </c>
       <c r="H14" s="44">
         <f t="shared" si="0"/>
-        <v>0.69713280258451604</v>
+        <v>0.69713280258451582</v>
       </c>
       <c r="I14" s="44">
         <f t="shared" si="0"/>
-        <v>0.40204481792717001</v>
+        <v>0.40204481792717039</v>
       </c>
       <c r="J14" s="44">
         <f t="shared" si="0"/>
-        <v>0.50029963898916996</v>
+        <v>0.50029963898916963</v>
       </c>
       <c r="K14" s="44">
         <f t="shared" si="0"/>
-        <v>0.73835018329705604</v>
+        <v>0.7383501832970556</v>
       </c>
       <c r="L14" s="44">
         <f t="shared" si="0"/>
-        <v>0.80985117272907903</v>
+        <v>0.80985117272907947</v>
       </c>
       <c r="M14" s="44">
         <f t="shared" si="0"/>
@@ -10756,17 +10771,17 @@
       </c>
     </row>
     <row r="15" spans="1:13">
-      <c r="A15" s="118"/>
+      <c r="A15" s="108"/>
       <c r="B15" s="43" t="s">
         <v>53</v>
       </c>
       <c r="C15" s="44">
         <f>AVERAGE(C5,C7,C9,C11,C13)</f>
-        <v>0.77770767470142299</v>
+        <v>0.7777076747014231</v>
       </c>
       <c r="D15" s="44">
         <f t="shared" ref="D15:M15" si="1">AVERAGE(D5,D7,D9,D11,D13)</f>
-        <v>0.67798451495548495</v>
+        <v>0.6779845149554854</v>
       </c>
       <c r="E15" s="44">
         <f t="shared" si="1"/>
@@ -10774,31 +10789,31 @@
       </c>
       <c r="F15" s="44">
         <f t="shared" si="1"/>
-        <v>0.89563255801645902</v>
+        <v>0.89563255801645858</v>
       </c>
       <c r="G15" s="44">
         <f t="shared" si="1"/>
-        <v>0.76329007017183503</v>
+        <v>0.76329007017183537</v>
       </c>
       <c r="H15" s="44">
         <f t="shared" si="1"/>
-        <v>0.75940521802590699</v>
+        <v>0.75940521802590721</v>
       </c>
       <c r="I15" s="44">
         <f t="shared" si="1"/>
-        <v>0.38557422969187599</v>
+        <v>0.38557422969187638</v>
       </c>
       <c r="J15" s="44">
         <f t="shared" si="1"/>
-        <v>0.50255473713099497</v>
+        <v>0.50255473713099508</v>
       </c>
       <c r="K15" s="44">
         <f t="shared" si="1"/>
-        <v>0.71037109326126602</v>
+        <v>0.71037109326126635</v>
       </c>
       <c r="L15" s="44">
         <f t="shared" si="1"/>
-        <v>0.87578326873385004</v>
+        <v>0.87578326873384982</v>
       </c>
       <c r="M15" s="44">
         <f t="shared" si="1"/>
@@ -10806,56 +10821,56 @@
       </c>
     </row>
     <row r="19" spans="1:13">
-      <c r="A19" s="108" t="s">
+      <c r="A19" s="118" t="s">
         <v>55</v>
       </c>
-      <c r="B19" s="109"/>
-      <c r="C19" s="109"/>
-      <c r="D19" s="109"/>
-      <c r="E19" s="109"/>
-      <c r="F19" s="109"/>
-      <c r="G19" s="109"/>
-      <c r="H19" s="109"/>
-      <c r="I19" s="109"/>
-      <c r="J19" s="109"/>
-      <c r="K19" s="109"/>
-      <c r="L19" s="109"/>
-      <c r="M19" s="110"/>
+      <c r="B19" s="119"/>
+      <c r="C19" s="119"/>
+      <c r="D19" s="119"/>
+      <c r="E19" s="119"/>
+      <c r="F19" s="119"/>
+      <c r="G19" s="119"/>
+      <c r="H19" s="119"/>
+      <c r="I19" s="119"/>
+      <c r="J19" s="119"/>
+      <c r="K19" s="119"/>
+      <c r="L19" s="119"/>
+      <c r="M19" s="120"/>
     </row>
     <row r="20" spans="1:13">
-      <c r="A20" s="112" t="s">
-        <v>0</v>
-      </c>
-      <c r="B20" s="112" t="s">
+      <c r="A20" s="110" t="s">
+        <v>0</v>
+      </c>
+      <c r="B20" s="110" t="s">
         <v>1</v>
       </c>
-      <c r="C20" s="120" t="s">
+      <c r="C20" s="112" t="s">
         <v>2</v>
       </c>
-      <c r="D20" s="120" t="s">
+      <c r="D20" s="112" t="s">
         <v>51</v>
       </c>
-      <c r="E20" s="112" t="s">
+      <c r="E20" s="110" t="s">
         <v>4</v>
       </c>
-      <c r="F20" s="112"/>
-      <c r="G20" s="112"/>
-      <c r="H20" s="112" t="s">
+      <c r="F20" s="110"/>
+      <c r="G20" s="110"/>
+      <c r="H20" s="110" t="s">
         <v>5</v>
       </c>
-      <c r="I20" s="112"/>
-      <c r="J20" s="112"/>
-      <c r="K20" s="112" t="s">
+      <c r="I20" s="110"/>
+      <c r="J20" s="110"/>
+      <c r="K20" s="110" t="s">
         <v>6</v>
       </c>
-      <c r="L20" s="112"/>
-      <c r="M20" s="112"/>
+      <c r="L20" s="110"/>
+      <c r="M20" s="110"/>
     </row>
     <row r="21" spans="1:13">
-      <c r="A21" s="112"/>
-      <c r="B21" s="112"/>
-      <c r="C21" s="120"/>
-      <c r="D21" s="120"/>
+      <c r="A21" s="110"/>
+      <c r="B21" s="110"/>
+      <c r="C21" s="112"/>
+      <c r="D21" s="112"/>
       <c r="E21" s="46" t="s">
         <v>7</v>
       </c>
@@ -11285,7 +11300,7 @@
       </c>
     </row>
     <row r="32" spans="1:13">
-      <c r="A32" s="118" t="s">
+      <c r="A32" s="108" t="s">
         <v>54</v>
       </c>
       <c r="B32" s="43" t="s">
@@ -11326,7 +11341,7 @@
       </c>
     </row>
     <row r="33" spans="1:13">
-      <c r="A33" s="118"/>
+      <c r="A33" s="108"/>
       <c r="B33" s="43" t="s">
         <v>57</v>
       </c>
@@ -11366,16 +11381,11 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="H2:J2"/>
+    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="A19:M19"/>
     <mergeCell ref="E20:G20"/>
     <mergeCell ref="H20:J20"/>
     <mergeCell ref="K20:M20"/>
@@ -11389,11 +11399,16 @@
     <mergeCell ref="A20:A21"/>
     <mergeCell ref="D2:D3"/>
     <mergeCell ref="D20:D21"/>
-    <mergeCell ref="A1:M1"/>
-    <mergeCell ref="E2:G2"/>
-    <mergeCell ref="H2:J2"/>
-    <mergeCell ref="K2:M2"/>
-    <mergeCell ref="A19:M19"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="A30:A31"/>
   </mergeCells>
   <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11408,7 +11423,7 @@
       <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.69140625" defaultRowHeight="15.5"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="41" customWidth="1"/>
   </cols>
@@ -11876,7 +11891,7 @@
       </c>
     </row>
     <row r="13" spans="1:13">
-      <c r="A13" s="118" t="s">
+      <c r="A13" s="108" t="s">
         <v>54</v>
       </c>
       <c r="B13" s="43" t="s">
@@ -11884,7 +11899,7 @@
       </c>
       <c r="C13" s="44">
         <f t="shared" ref="C13:M13" si="0">AVERAGE(C3,C5,C7,C9,C11)</f>
-        <v>0.67767660544376196</v>
+        <v>0.67767660544376229</v>
       </c>
       <c r="D13" s="44">
         <f t="shared" si="0"/>
@@ -11892,7 +11907,7 @@
       </c>
       <c r="E13" s="44">
         <f t="shared" si="0"/>
-        <v>0.94949931042753499</v>
+        <v>0.94949931042753488</v>
       </c>
       <c r="F13" s="44">
         <f t="shared" si="0"/>
@@ -11900,27 +11915,27 @@
       </c>
       <c r="G13" s="44">
         <f t="shared" si="0"/>
-        <v>0.63562057410879202</v>
+        <v>0.63562057410879169</v>
       </c>
       <c r="H13" s="44">
         <f t="shared" si="0"/>
-        <v>0.43115945945945899</v>
+        <v>0.43115945945945944</v>
       </c>
       <c r="I13" s="44">
         <f t="shared" si="0"/>
-        <v>0.61364145658263303</v>
+        <v>0.61364145658263269</v>
       </c>
       <c r="J13" s="44">
         <f t="shared" si="0"/>
-        <v>0.49718634176423399</v>
+        <v>0.49718634176423421</v>
       </c>
       <c r="K13" s="44">
         <f t="shared" si="0"/>
-        <v>0.80806238678579101</v>
+        <v>0.80806238678579057</v>
       </c>
       <c r="L13" s="44">
         <f t="shared" si="0"/>
-        <v>0.55146355098389999</v>
+        <v>0.55146355098389954</v>
       </c>
       <c r="M13" s="44">
         <f t="shared" si="0"/>
@@ -11928,17 +11943,17 @@
       </c>
     </row>
     <row r="14" spans="1:13">
-      <c r="A14" s="118"/>
+      <c r="A14" s="108"/>
       <c r="B14" s="43" t="s">
         <v>17</v>
       </c>
       <c r="C14" s="44">
         <f>AVERAGE(C4,C6,C8,C10,C12)</f>
-        <v>0.72608741884594996</v>
+        <v>0.72608741884595029</v>
       </c>
       <c r="D14" s="44">
         <f t="shared" ref="D14:M14" si="1">AVERAGE(D4,D6,D8,D10,D12)</f>
-        <v>0.63321320976683204</v>
+        <v>0.63321320976683249</v>
       </c>
       <c r="E14" s="44">
         <f t="shared" si="1"/>
@@ -11946,19 +11961,19 @@
       </c>
       <c r="F14" s="44">
         <f t="shared" si="1"/>
-        <v>0.60297694488470599</v>
+        <v>0.60297694488470577</v>
       </c>
       <c r="G14" s="44">
         <f t="shared" si="1"/>
-        <v>0.69270770474236398</v>
+        <v>0.69270770474236421</v>
       </c>
       <c r="H14" s="44">
         <f t="shared" si="1"/>
-        <v>0.49280158967961502</v>
+        <v>0.49280158967961468</v>
       </c>
       <c r="I14" s="44">
         <f t="shared" si="1"/>
-        <v>0.69809523809523799</v>
+        <v>0.69809523809523788</v>
       </c>
       <c r="J14" s="44">
         <f t="shared" si="1"/>
@@ -11970,7 +11985,7 @@
       </c>
       <c r="L14" s="44">
         <f t="shared" si="1"/>
-        <v>0.51393845656926995</v>
+        <v>0.51393845656927017</v>
       </c>
       <c r="M14" s="44">
         <f t="shared" si="1"/>
@@ -11979,11 +11994,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="A13:A14"/>
     <mergeCell ref="E1:G1"/>
     <mergeCell ref="H1:J1"/>
     <mergeCell ref="K1:M1"/>
@@ -11992,6 +12002,11 @@
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="D1:D2"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="A13:A14"/>
   </mergeCells>
   <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12002,13 +12017,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:M26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="61" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.69140625" defaultRowHeight="15.5"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="49.765625" customWidth="1"/>
+    <col min="2" max="2" width="49.73046875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
@@ -12074,7 +12089,7 @@
       </c>
     </row>
     <row r="3" spans="1:13">
-      <c r="A3" s="123" t="s">
+      <c r="A3" s="133" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="15" t="s">
@@ -12115,7 +12130,7 @@
       </c>
     </row>
     <row r="4" spans="1:13">
-      <c r="A4" s="124"/>
+      <c r="A4" s="134"/>
       <c r="B4" s="17" t="s">
         <v>17</v>
       </c>
@@ -12154,7 +12169,7 @@
       </c>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5" s="124"/>
+      <c r="A5" s="134"/>
       <c r="B5" s="17" t="s">
         <v>59</v>
       </c>
@@ -12193,7 +12208,7 @@
       </c>
     </row>
     <row r="6" spans="1:13">
-      <c r="A6" s="124"/>
+      <c r="A6" s="134"/>
       <c r="B6" s="17" t="s">
         <v>60</v>
       </c>
@@ -12232,7 +12247,7 @@
       </c>
     </row>
     <row r="7" spans="1:13">
-      <c r="A7" s="125" t="s">
+      <c r="A7" s="123" t="s">
         <v>18</v>
       </c>
       <c r="B7" s="19" t="s">
@@ -12273,7 +12288,7 @@
       </c>
     </row>
     <row r="8" spans="1:13">
-      <c r="A8" s="126"/>
+      <c r="A8" s="124"/>
       <c r="B8" s="21" t="s">
         <v>17</v>
       </c>
@@ -12312,7 +12327,7 @@
       </c>
     </row>
     <row r="9" spans="1:13">
-      <c r="A9" s="126"/>
+      <c r="A9" s="124"/>
       <c r="B9" s="21" t="s">
         <v>59</v>
       </c>
@@ -12351,7 +12366,7 @@
       </c>
     </row>
     <row r="10" spans="1:13">
-      <c r="A10" s="126"/>
+      <c r="A10" s="124"/>
       <c r="B10" s="21" t="s">
         <v>60</v>
       </c>
@@ -12390,7 +12405,7 @@
       </c>
     </row>
     <row r="11" spans="1:13">
-      <c r="A11" s="127" t="s">
+      <c r="A11" s="125" t="s">
         <v>19</v>
       </c>
       <c r="B11" s="22" t="s">
@@ -12431,7 +12446,7 @@
       </c>
     </row>
     <row r="12" spans="1:13">
-      <c r="A12" s="128"/>
+      <c r="A12" s="126"/>
       <c r="B12" s="24" t="s">
         <v>17</v>
       </c>
@@ -12470,7 +12485,7 @@
       </c>
     </row>
     <row r="13" spans="1:13">
-      <c r="A13" s="128"/>
+      <c r="A13" s="126"/>
       <c r="B13" s="24" t="s">
         <v>59</v>
       </c>
@@ -12509,7 +12524,7 @@
       </c>
     </row>
     <row r="14" spans="1:13">
-      <c r="A14" s="128"/>
+      <c r="A14" s="126"/>
       <c r="B14" s="24" t="s">
         <v>60</v>
       </c>
@@ -12548,7 +12563,7 @@
       </c>
     </row>
     <row r="15" spans="1:13">
-      <c r="A15" s="129" t="s">
+      <c r="A15" s="127" t="s">
         <v>20</v>
       </c>
       <c r="B15" s="25" t="s">
@@ -12589,7 +12604,7 @@
       </c>
     </row>
     <row r="16" spans="1:13">
-      <c r="A16" s="130"/>
+      <c r="A16" s="128"/>
       <c r="B16" s="27" t="s">
         <v>17</v>
       </c>
@@ -12628,7 +12643,7 @@
       </c>
     </row>
     <row r="17" spans="1:13">
-      <c r="A17" s="130"/>
+      <c r="A17" s="128"/>
       <c r="B17" s="27" t="s">
         <v>59</v>
       </c>
@@ -12667,7 +12682,7 @@
       </c>
     </row>
     <row r="18" spans="1:13">
-      <c r="A18" s="130"/>
+      <c r="A18" s="128"/>
       <c r="B18" s="27" t="s">
         <v>60</v>
       </c>
@@ -12706,7 +12721,7 @@
       </c>
     </row>
     <row r="19" spans="1:13">
-      <c r="A19" s="154" t="s">
+      <c r="A19" s="131" t="s">
         <v>65</v>
       </c>
       <c r="B19" s="28" t="s">
@@ -12747,7 +12762,7 @@
       </c>
     </row>
     <row r="20" spans="1:13">
-      <c r="A20" s="133"/>
+      <c r="A20" s="132"/>
       <c r="B20" s="30" t="s">
         <v>17</v>
       </c>
@@ -12786,7 +12801,7 @@
       </c>
     </row>
     <row r="21" spans="1:13">
-      <c r="A21" s="133"/>
+      <c r="A21" s="132"/>
       <c r="B21" s="30" t="s">
         <v>59</v>
       </c>
@@ -12825,7 +12840,7 @@
       </c>
     </row>
     <row r="22" spans="1:13">
-      <c r="A22" s="133"/>
+      <c r="A22" s="132"/>
       <c r="B22" s="30" t="s">
         <v>60</v>
       </c>
@@ -12864,171 +12879,209 @@
       </c>
     </row>
     <row r="23" spans="1:13">
-      <c r="A23" s="131" t="s">
+      <c r="A23" s="129" t="s">
         <v>54</v>
       </c>
       <c r="B23" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="C23" s="13">
+      <c r="C23" s="155">
+        <f>AVERAGE(C3,C7,C11,C15,C19)</f>
         <v>0.73266790322415942</v>
       </c>
-      <c r="D23" s="13">
+      <c r="D23" s="155">
+        <f t="shared" ref="D23:M23" si="0">AVERAGE(D3,D7,D11,D15,D19)</f>
         <v>0.63977357881176622</v>
       </c>
-      <c r="E23" s="13">
+      <c r="E23" s="155">
+        <f t="shared" si="0"/>
         <v>0.77462507686854476</v>
       </c>
-      <c r="F23" s="13">
+      <c r="F23" s="155">
+        <f t="shared" si="0"/>
         <v>0.71875770458027266</v>
       </c>
-      <c r="G23" s="13">
+      <c r="G23" s="155">
+        <f t="shared" si="0"/>
         <v>0.74159296945927822</v>
       </c>
-      <c r="H23" s="13">
+      <c r="H23" s="155">
+        <f t="shared" si="0"/>
         <v>0.46676800976800958</v>
       </c>
-      <c r="I23" s="13">
+      <c r="I23" s="155">
+        <f t="shared" si="0"/>
         <v>0.58456582633053178</v>
       </c>
-      <c r="J23" s="13">
+      <c r="J23" s="155">
+        <f t="shared" si="0"/>
         <v>0.51130979491371953</v>
       </c>
-      <c r="K23" s="13">
+      <c r="K23" s="155">
+        <f t="shared" si="0"/>
         <v>0.82669797522738653</v>
       </c>
-      <c r="L23" s="13">
+      <c r="L23" s="155">
+        <f t="shared" si="0"/>
         <v>0.59166703935599241</v>
       </c>
-      <c r="M23" s="13">
+      <c r="M23" s="155">
+        <f t="shared" si="0"/>
         <v>0.66641797206230158</v>
       </c>
     </row>
     <row r="24" spans="1:13">
-      <c r="A24" s="132"/>
+      <c r="A24" s="130"/>
       <c r="B24" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="C24" s="13">
+      <c r="C24" s="155">
+        <f t="shared" ref="C24:M24" si="1">AVERAGE(C4,C8,C12,C16,C20)</f>
         <v>0.81071196015167557</v>
       </c>
-      <c r="D24" s="13">
+      <c r="D24" s="155">
+        <f t="shared" si="1"/>
         <v>0.71823208290021268</v>
       </c>
-      <c r="E24" s="13">
+      <c r="E24" s="155">
+        <f t="shared" si="1"/>
         <v>0.7756491607807392</v>
       </c>
-      <c r="F24" s="13">
+      <c r="F24" s="155">
+        <f t="shared" si="1"/>
         <v>0.79062342885872272</v>
       </c>
-      <c r="G24" s="13">
+      <c r="G24" s="155">
+        <f t="shared" si="1"/>
         <v>0.77719707571516827</v>
       </c>
-      <c r="H24" s="13">
+      <c r="H24" s="155">
+        <f t="shared" si="1"/>
         <v>0.60947727100394278</v>
       </c>
-      <c r="I24" s="13">
+      <c r="I24" s="155">
+        <f t="shared" si="1"/>
         <v>0.64282913165266076</v>
       </c>
-      <c r="J24" s="13">
+      <c r="J24" s="155">
+        <f t="shared" si="1"/>
         <v>0.62382892069033991</v>
       </c>
-      <c r="K24" s="13">
+      <c r="K24" s="155">
+        <f t="shared" si="1"/>
         <v>0.87359357060849552</v>
       </c>
-      <c r="L24" s="13">
+      <c r="L24" s="155">
+        <f t="shared" si="1"/>
         <v>0.67548213575829841</v>
       </c>
-      <c r="M24" s="13">
+      <c r="M24" s="155">
+        <f t="shared" si="1"/>
         <v>0.75367025229512963</v>
       </c>
     </row>
     <row r="25" spans="1:13">
-      <c r="A25" s="132"/>
+      <c r="A25" s="130"/>
       <c r="B25" s="32" t="s">
         <v>59</v>
       </c>
-      <c r="C25" s="13">
+      <c r="C25" s="155">
+        <f t="shared" ref="C25:M25" si="2">AVERAGE(C5,C9,C13,C17,C21)</f>
         <v>0.77317924045568831</v>
       </c>
-      <c r="D25" s="13">
+      <c r="D25" s="155">
+        <f t="shared" si="2"/>
         <v>0.68249230684530593</v>
       </c>
-      <c r="E25" s="13">
+      <c r="E25" s="155">
+        <f t="shared" si="2"/>
         <v>0.76917371651607147</v>
       </c>
-      <c r="F25" s="13">
+      <c r="F25" s="155">
+        <f t="shared" si="2"/>
         <v>0.76674002841398958</v>
       </c>
-      <c r="G25" s="13">
+      <c r="G25" s="155">
+        <f t="shared" si="2"/>
         <v>0.76231618006054069</v>
       </c>
-      <c r="H25" s="13">
+      <c r="H25" s="155">
+        <f t="shared" si="2"/>
         <v>0.5354300334463914</v>
       </c>
-      <c r="I25" s="13">
+      <c r="I25" s="155">
+        <f t="shared" si="2"/>
         <v>0.66176470588235259</v>
       </c>
-      <c r="J25" s="13">
+      <c r="J25" s="155">
+        <f t="shared" si="2"/>
         <v>0.58763617804589896</v>
       </c>
-      <c r="K25" s="13">
+      <c r="K25" s="155">
+        <f t="shared" si="2"/>
         <v>0.89907426626260922</v>
       </c>
-      <c r="L25" s="13">
+      <c r="L25" s="155">
+        <f t="shared" si="2"/>
         <v>0.58517503975352803</v>
       </c>
-      <c r="M25" s="13">
+      <c r="M25" s="155">
+        <f t="shared" si="2"/>
         <v>0.69752456242947813</v>
       </c>
     </row>
     <row r="26" spans="1:13">
-      <c r="A26" s="132"/>
+      <c r="A26" s="130"/>
       <c r="B26" s="32" t="s">
         <v>60</v>
       </c>
-      <c r="C26" s="13">
+      <c r="C26" s="155">
+        <f t="shared" ref="C26:M26" si="3">AVERAGE(C6,C10,C14,C18,C22)</f>
         <v>0.7986494245990009</v>
       </c>
-      <c r="D26" s="13">
+      <c r="D26" s="155">
+        <f t="shared" si="3"/>
         <v>0.70758691863399881</v>
       </c>
-      <c r="E26" s="13">
+      <c r="E26" s="155">
+        <f t="shared" si="3"/>
         <v>0.77250003797372169</v>
       </c>
-      <c r="F26" s="13">
+      <c r="F26" s="155">
+        <f t="shared" si="3"/>
         <v>0.79316239316239279</v>
       </c>
-      <c r="G26" s="13">
+      <c r="G26" s="155">
+        <f t="shared" si="3"/>
         <v>0.77706207089356738</v>
       </c>
-      <c r="H26" s="13">
+      <c r="H26" s="155">
+        <f t="shared" si="3"/>
         <v>0.59702290392357737</v>
       </c>
-      <c r="I26" s="13">
+      <c r="I26" s="155">
+        <f t="shared" si="3"/>
         <v>0.64518207282913131</v>
       </c>
-      <c r="J26" s="13">
+      <c r="J26" s="155">
+        <f t="shared" si="3"/>
         <v>0.61867389730731381</v>
       </c>
-      <c r="K26" s="13">
+      <c r="K26" s="155">
+        <f t="shared" si="3"/>
         <v>0.88056171470805578</v>
       </c>
-      <c r="L26" s="13">
+      <c r="L26" s="155">
+        <f t="shared" si="3"/>
         <v>0.63236036573245846</v>
       </c>
-      <c r="M26" s="13">
+      <c r="M26" s="155">
+        <f t="shared" si="3"/>
         <v>0.72702478770111578</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A7:A10"/>
-    <mergeCell ref="A11:A14"/>
-    <mergeCell ref="A15:A18"/>
-    <mergeCell ref="A23:A26"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="A19:A22"/>
     <mergeCell ref="E1:G1"/>
     <mergeCell ref="H1:J1"/>
     <mergeCell ref="K1:M1"/>
@@ -13036,6 +13089,12 @@
     <mergeCell ref="A3:A6"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="D1:D2"/>
+    <mergeCell ref="A7:A10"/>
+    <mergeCell ref="A11:A14"/>
+    <mergeCell ref="A15:A18"/>
+    <mergeCell ref="A23:A26"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="A19:A22"/>
   </mergeCells>
   <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13046,13 +13105,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:M26"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" zoomScale="67" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23:M24"/>
+    <sheetView tabSelected="1" zoomScale="67" workbookViewId="0">
+      <selection activeCell="K32" sqref="K32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.69140625" defaultRowHeight="15.5"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="44.4609375" customWidth="1"/>
+    <col min="2" max="2" width="44.46484375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
@@ -13118,7 +13177,7 @@
       </c>
     </row>
     <row r="3" spans="1:13">
-      <c r="A3" s="123" t="s">
+      <c r="A3" s="133" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="15" t="s">
@@ -13159,7 +13218,7 @@
       </c>
     </row>
     <row r="4" spans="1:13">
-      <c r="A4" s="124"/>
+      <c r="A4" s="134"/>
       <c r="B4" s="17" t="s">
         <v>17</v>
       </c>
@@ -13198,7 +13257,7 @@
       </c>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5" s="124"/>
+      <c r="A5" s="134"/>
       <c r="B5" s="18" t="s">
         <v>61</v>
       </c>
@@ -13237,7 +13296,7 @@
       </c>
     </row>
     <row r="6" spans="1:13">
-      <c r="A6" s="124"/>
+      <c r="A6" s="134"/>
       <c r="B6" s="18" t="s">
         <v>62</v>
       </c>
@@ -13276,7 +13335,7 @@
       </c>
     </row>
     <row r="7" spans="1:13">
-      <c r="A7" s="125" t="s">
+      <c r="A7" s="123" t="s">
         <v>18</v>
       </c>
       <c r="B7" s="19" t="s">
@@ -13317,7 +13376,7 @@
       </c>
     </row>
     <row r="8" spans="1:13">
-      <c r="A8" s="126"/>
+      <c r="A8" s="124"/>
       <c r="B8" s="21" t="s">
         <v>17</v>
       </c>
@@ -13356,7 +13415,7 @@
       </c>
     </row>
     <row r="9" spans="1:13">
-      <c r="A9" s="126"/>
+      <c r="A9" s="124"/>
       <c r="B9" s="21" t="s">
         <v>61</v>
       </c>
@@ -13395,7 +13454,7 @@
       </c>
     </row>
     <row r="10" spans="1:13">
-      <c r="A10" s="126"/>
+      <c r="A10" s="124"/>
       <c r="B10" s="21" t="s">
         <v>62</v>
       </c>
@@ -13434,7 +13493,7 @@
       </c>
     </row>
     <row r="11" spans="1:13">
-      <c r="A11" s="127" t="s">
+      <c r="A11" s="125" t="s">
         <v>19</v>
       </c>
       <c r="B11" s="22" t="s">
@@ -13475,7 +13534,7 @@
       </c>
     </row>
     <row r="12" spans="1:13">
-      <c r="A12" s="128"/>
+      <c r="A12" s="126"/>
       <c r="B12" s="24" t="s">
         <v>17</v>
       </c>
@@ -13514,7 +13573,7 @@
       </c>
     </row>
     <row r="13" spans="1:13">
-      <c r="A13" s="128"/>
+      <c r="A13" s="126"/>
       <c r="B13" s="24" t="s">
         <v>61</v>
       </c>
@@ -13553,7 +13612,7 @@
       </c>
     </row>
     <row r="14" spans="1:13">
-      <c r="A14" s="128"/>
+      <c r="A14" s="126"/>
       <c r="B14" s="24" t="s">
         <v>62</v>
       </c>
@@ -13592,7 +13651,7 @@
       </c>
     </row>
     <row r="15" spans="1:13">
-      <c r="A15" s="129" t="s">
+      <c r="A15" s="127" t="s">
         <v>20</v>
       </c>
       <c r="B15" s="25" t="s">
@@ -13633,7 +13692,7 @@
       </c>
     </row>
     <row r="16" spans="1:13">
-      <c r="A16" s="130"/>
+      <c r="A16" s="128"/>
       <c r="B16" s="27" t="s">
         <v>17</v>
       </c>
@@ -13672,7 +13731,7 @@
       </c>
     </row>
     <row r="17" spans="1:13">
-      <c r="A17" s="130"/>
+      <c r="A17" s="128"/>
       <c r="B17" s="27" t="s">
         <v>61</v>
       </c>
@@ -13711,7 +13770,7 @@
       </c>
     </row>
     <row r="18" spans="1:13">
-      <c r="A18" s="130"/>
+      <c r="A18" s="128"/>
       <c r="B18" s="27" t="s">
         <v>62</v>
       </c>
@@ -13750,7 +13809,7 @@
       </c>
     </row>
     <row r="19" spans="1:13">
-      <c r="A19" s="154" t="s">
+      <c r="A19" s="131" t="s">
         <v>66</v>
       </c>
       <c r="B19" s="28" t="s">
@@ -13791,7 +13850,7 @@
       </c>
     </row>
     <row r="20" spans="1:13">
-      <c r="A20" s="133"/>
+      <c r="A20" s="132"/>
       <c r="B20" s="30" t="s">
         <v>17</v>
       </c>
@@ -13830,7 +13889,7 @@
       </c>
     </row>
     <row r="21" spans="1:13">
-      <c r="A21" s="133"/>
+      <c r="A21" s="132"/>
       <c r="B21" s="30" t="s">
         <v>61</v>
       </c>
@@ -13869,7 +13928,7 @@
       </c>
     </row>
     <row r="22" spans="1:13">
-      <c r="A22" s="133"/>
+      <c r="A22" s="132"/>
       <c r="B22" s="30" t="s">
         <v>62</v>
       </c>
@@ -13908,181 +13967,209 @@
       </c>
     </row>
     <row r="23" spans="1:13">
-      <c r="A23" s="131" t="s">
+      <c r="A23" s="129" t="s">
         <v>54</v>
       </c>
       <c r="B23" s="31" t="s">
         <v>15</v>
       </c>
       <c r="C23" s="13">
+        <f>AVERAGE(C3,C7,C11,C15,C19)</f>
         <v>0.73266790322415942</v>
       </c>
       <c r="D23" s="13">
+        <f t="shared" ref="D23:M23" si="0">AVERAGE(D3,D7,D11,D15,D19)</f>
         <v>0.63977357881176622</v>
       </c>
       <c r="E23" s="13">
+        <f t="shared" si="0"/>
         <v>0.77462507686854476</v>
       </c>
       <c r="F23" s="13">
+        <f t="shared" si="0"/>
         <v>0.71875770458027266</v>
       </c>
       <c r="G23" s="13">
+        <f t="shared" si="0"/>
         <v>0.74159296945927822</v>
       </c>
       <c r="H23" s="13">
+        <f t="shared" si="0"/>
         <v>0.46676800976800958</v>
       </c>
       <c r="I23" s="13">
+        <f t="shared" si="0"/>
         <v>0.58456582633053178</v>
       </c>
       <c r="J23" s="13">
+        <f t="shared" si="0"/>
         <v>0.51130979491371953</v>
       </c>
       <c r="K23" s="13">
+        <f t="shared" si="0"/>
         <v>0.82669797522738653</v>
       </c>
       <c r="L23" s="13">
+        <f t="shared" si="0"/>
         <v>0.59166703935599241</v>
       </c>
       <c r="M23" s="13">
+        <f t="shared" si="0"/>
         <v>0.66641797206230158</v>
       </c>
     </row>
     <row r="24" spans="1:13">
-      <c r="A24" s="132"/>
+      <c r="A24" s="130"/>
       <c r="B24" s="32" t="s">
         <v>17</v>
       </c>
       <c r="C24" s="13">
+        <f t="shared" ref="C24:M26" si="1">AVERAGE(C4,C8,C12,C16,C20)</f>
         <v>0.81071196015167557</v>
       </c>
       <c r="D24" s="13">
+        <f t="shared" si="1"/>
         <v>0.71823208290021268</v>
       </c>
       <c r="E24" s="13">
+        <f t="shared" si="1"/>
         <v>0.7756491607807392</v>
       </c>
       <c r="F24" s="13">
+        <f t="shared" si="1"/>
         <v>0.79062342885872272</v>
       </c>
       <c r="G24" s="13">
+        <f t="shared" si="1"/>
         <v>0.77719707571516827</v>
       </c>
       <c r="H24" s="13">
+        <f t="shared" si="1"/>
         <v>0.60947727100394278</v>
       </c>
       <c r="I24" s="13">
+        <f t="shared" si="1"/>
         <v>0.64282913165266076</v>
       </c>
       <c r="J24" s="13">
+        <f t="shared" si="1"/>
         <v>0.62382892069033991</v>
       </c>
       <c r="K24" s="13">
+        <f t="shared" si="1"/>
         <v>0.87359357060849552</v>
       </c>
       <c r="L24" s="13">
+        <f t="shared" si="1"/>
         <v>0.67548213575829841</v>
       </c>
       <c r="M24" s="13">
+        <f t="shared" si="1"/>
         <v>0.75367025229512963</v>
       </c>
     </row>
     <row r="25" spans="1:13">
-      <c r="A25" s="132"/>
+      <c r="A25" s="130"/>
       <c r="B25" s="32" t="s">
         <v>61</v>
       </c>
       <c r="C25" s="13">
+        <f t="shared" si="1"/>
         <v>0.78035551316564455</v>
       </c>
       <c r="D25" s="13">
+        <f t="shared" si="1"/>
         <v>0.68036959180262069</v>
       </c>
       <c r="E25" s="13">
+        <f t="shared" si="1"/>
         <v>0.77869388017072605</v>
       </c>
       <c r="F25" s="13">
+        <f t="shared" si="1"/>
         <v>0.72551328130488957</v>
       </c>
       <c r="G25" s="13">
+        <f t="shared" si="1"/>
         <v>0.7432408860980283</v>
       </c>
       <c r="H25" s="13">
+        <f t="shared" si="1"/>
         <v>0.52674010577236341</v>
       </c>
       <c r="I25" s="13">
+        <f t="shared" si="1"/>
         <v>0.58941176470588208</v>
       </c>
       <c r="J25" s="13">
+        <f t="shared" si="1"/>
         <v>0.55387183116743377</v>
       </c>
       <c r="K25" s="13">
+        <f t="shared" si="1"/>
         <v>0.85096618357487885</v>
       </c>
       <c r="L25" s="13">
+        <f t="shared" si="1"/>
         <v>0.68434058835221578</v>
       </c>
       <c r="M25" s="13">
+        <f t="shared" si="1"/>
         <v>0.74399605814239922</v>
       </c>
     </row>
     <row r="26" spans="1:13">
-      <c r="A26" s="132"/>
+      <c r="A26" s="130"/>
       <c r="B26" s="32" t="s">
         <v>62</v>
       </c>
       <c r="C26" s="13">
-        <f>AVERAGE(C6,C10,C14,C18,C22)</f>
-        <v>0.79660500129914602</v>
+        <f t="shared" si="1"/>
+        <v>0.79660500129914613</v>
       </c>
       <c r="D26" s="13">
-        <f t="shared" ref="D26:M26" si="0">AVERAGE(D6,D10,D14,D18,D22)</f>
-        <v>0.69371313414310598</v>
+        <f t="shared" si="1"/>
+        <v>0.69371313414310587</v>
       </c>
       <c r="E26" s="13">
-        <f t="shared" si="0"/>
-        <v>0.77005639033632201</v>
+        <f t="shared" si="1"/>
+        <v>0.77005639033632178</v>
       </c>
       <c r="F26" s="13">
-        <f t="shared" si="0"/>
-        <v>0.77940581090735805</v>
+        <f t="shared" si="1"/>
+        <v>0.7794058109073585</v>
       </c>
       <c r="G26" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.77012673187203995</v>
       </c>
       <c r="H26" s="13">
-        <f t="shared" si="0"/>
-        <v>0.54176190179751404</v>
+        <f t="shared" si="1"/>
+        <v>0.5417619017975136</v>
       </c>
       <c r="I26" s="13">
-        <f t="shared" si="0"/>
-        <v>0.56655462184873895</v>
+        <f t="shared" si="1"/>
+        <v>0.56655462184873928</v>
       </c>
       <c r="J26" s="13">
-        <f t="shared" si="0"/>
-        <v>0.55038599970936397</v>
+        <f t="shared" si="1"/>
+        <v>0.55038599970936386</v>
       </c>
       <c r="K26" s="13">
-        <f t="shared" si="0"/>
-        <v>0.848974397436975</v>
+        <f t="shared" si="1"/>
+        <v>0.84897439743697523</v>
       </c>
       <c r="L26" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.71523106738222997</v>
       </c>
       <c r="M26" s="13">
-        <f t="shared" si="0"/>
-        <v>0.76062667084791402</v>
+        <f t="shared" si="1"/>
+        <v>0.7606266708479138</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A7:A10"/>
-    <mergeCell ref="A11:A14"/>
-    <mergeCell ref="A15:A18"/>
-    <mergeCell ref="A19:A22"/>
-    <mergeCell ref="A23:A26"/>
     <mergeCell ref="E1:G1"/>
     <mergeCell ref="H1:J1"/>
     <mergeCell ref="K1:M1"/>
@@ -14091,6 +14178,11 @@
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="D1:D2"/>
+    <mergeCell ref="A7:A10"/>
+    <mergeCell ref="A11:A14"/>
+    <mergeCell ref="A15:A18"/>
+    <mergeCell ref="A19:A22"/>
+    <mergeCell ref="A23:A26"/>
   </mergeCells>
   <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -14105,7 +14197,7 @@
       <selection activeCell="Q26" sqref="Q26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.69140625" defaultRowHeight="15.5"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="121" t="s">
@@ -14170,7 +14262,7 @@
       </c>
     </row>
     <row r="3" spans="1:13">
-      <c r="A3" s="134" t="s">
+      <c r="A3" s="152" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="2">
@@ -14211,7 +14303,7 @@
       </c>
     </row>
     <row r="4" spans="1:13">
-      <c r="A4" s="135"/>
+      <c r="A4" s="153"/>
       <c r="B4" s="2">
         <v>2</v>
       </c>
@@ -14250,7 +14342,7 @@
       </c>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5" s="135"/>
+      <c r="A5" s="153"/>
       <c r="B5" s="2">
         <v>3</v>
       </c>
@@ -14289,7 +14381,7 @@
       </c>
     </row>
     <row r="6" spans="1:13">
-      <c r="A6" s="136"/>
+      <c r="A6" s="154"/>
       <c r="B6" s="2" t="s">
         <v>63</v>
       </c>
@@ -14968,7 +15060,7 @@
       </c>
       <c r="C23" s="13">
         <f>(C3+C7+C11+C15+C19)/5</f>
-        <v>0.72216000000000002</v>
+        <v>0.72215999999999991</v>
       </c>
       <c r="D23" s="13">
         <f t="shared" ref="D23:M23" si="0">(D3+D7+D11+D15+D19)/5</f>
@@ -14976,15 +15068,15 @@
       </c>
       <c r="E23" s="13">
         <f t="shared" si="0"/>
-        <v>0.82188000000000005</v>
+        <v>0.82187999999999994</v>
       </c>
       <c r="F23" s="13">
         <f t="shared" si="0"/>
-        <v>0.66886000000000001</v>
+        <v>0.6688599999999999</v>
       </c>
       <c r="G23" s="13">
         <f t="shared" si="0"/>
-        <v>0.73262000000000005</v>
+        <v>0.73261999999999994</v>
       </c>
       <c r="H23" s="13">
         <f t="shared" si="0"/>
@@ -14992,11 +15084,11 @@
       </c>
       <c r="I23" s="13">
         <f t="shared" si="0"/>
-        <v>0.67911999999999995</v>
+        <v>0.67912000000000006</v>
       </c>
       <c r="J23" s="13">
         <f t="shared" si="0"/>
-        <v>0.54305999999999999</v>
+        <v>0.54305999999999988</v>
       </c>
       <c r="K23" s="13">
         <f t="shared" si="0"/>
@@ -15004,7 +15096,7 @@
       </c>
       <c r="L23" s="13">
         <f t="shared" si="0"/>
-        <v>0.55115999999999998</v>
+        <v>0.55116000000000009</v>
       </c>
       <c r="M23" s="13">
         <f t="shared" si="0"/>
@@ -15018,7 +15110,7 @@
       </c>
       <c r="C24" s="13">
         <f t="shared" ref="C24:M24" si="1">(C4+C8+C12+C16+C20)/5</f>
-        <v>0.74668000000000001</v>
+        <v>0.74668000000000012</v>
       </c>
       <c r="D24" s="13">
         <f t="shared" si="1"/>
@@ -15038,7 +15130,7 @@
       </c>
       <c r="H24" s="13">
         <f t="shared" si="1"/>
-        <v>0.47173999999999999</v>
+        <v>0.47173999999999994</v>
       </c>
       <c r="I24" s="13">
         <f t="shared" si="1"/>
@@ -15050,7 +15142,7 @@
       </c>
       <c r="K24" s="13">
         <f t="shared" si="1"/>
-        <v>0.84430000000000005</v>
+        <v>0.84429999999999994</v>
       </c>
       <c r="L24" s="13">
         <f t="shared" si="1"/>
@@ -15068,7 +15160,7 @@
       </c>
       <c r="C25" s="13">
         <f t="shared" ref="C25:M25" si="2">(C5+C9+C13+C17+C21)/5</f>
-        <v>0.72402</v>
+        <v>0.72402000000000011</v>
       </c>
       <c r="D25" s="13">
         <f t="shared" si="2"/>
@@ -15084,7 +15176,7 @@
       </c>
       <c r="G25" s="13">
         <f t="shared" si="2"/>
-        <v>0.75368000000000002</v>
+        <v>0.75367999999999991</v>
       </c>
       <c r="H25" s="13">
         <f t="shared" si="2"/>
@@ -15092,19 +15184,19 @@
       </c>
       <c r="I25" s="13">
         <f t="shared" si="2"/>
-        <v>0.60009999999999997</v>
+        <v>0.60010000000000008</v>
       </c>
       <c r="J25" s="13">
         <f t="shared" si="2"/>
-        <v>0.51734000000000002</v>
+        <v>0.51734000000000013</v>
       </c>
       <c r="K25" s="13">
         <f t="shared" si="2"/>
-        <v>0.84545999999999999</v>
+        <v>0.8454600000000001</v>
       </c>
       <c r="L25" s="13">
         <f t="shared" si="2"/>
-        <v>0.57813999999999999</v>
+        <v>0.5781400000000001</v>
       </c>
       <c r="M25" s="13">
         <f t="shared" si="2"/>
@@ -15118,7 +15210,7 @@
       </c>
       <c r="C26" s="14">
         <f t="shared" ref="C26:M26" si="3">(C6+C10+C14+C18+C22)/5</f>
-        <v>0.73096000000000005</v>
+        <v>0.73095999999999994</v>
       </c>
       <c r="D26" s="14">
         <f t="shared" si="3"/>
@@ -15130,7 +15222,7 @@
       </c>
       <c r="F26" s="13">
         <f t="shared" si="3"/>
-        <v>0.68188000000000004</v>
+        <v>0.68187999999999993</v>
       </c>
       <c r="G26" s="13">
         <f t="shared" si="3"/>
@@ -15142,7 +15234,7 @@
       </c>
       <c r="I26" s="13">
         <f t="shared" si="3"/>
-        <v>0.62239999999999995</v>
+        <v>0.62240000000000006</v>
       </c>
       <c r="J26" s="13">
         <f t="shared" si="3"/>
@@ -15162,135 +15254,129 @@
       </c>
     </row>
     <row r="29" spans="1:13">
-      <c r="A29" s="152" t="s">
+      <c r="A29" s="135" t="s">
         <v>64</v>
       </c>
-      <c r="B29" s="153"/>
-      <c r="C29" s="153"/>
-      <c r="D29" s="153"/>
-      <c r="E29" s="153"/>
-      <c r="F29" s="153"/>
-      <c r="G29" s="153"/>
-      <c r="H29" s="153"/>
-      <c r="I29" s="153"/>
-      <c r="J29" s="153"/>
-      <c r="K29" s="153"/>
-      <c r="L29" s="153"/>
-      <c r="M29" s="153"/>
+      <c r="B29" s="136"/>
+      <c r="C29" s="136"/>
+      <c r="D29" s="136"/>
+      <c r="E29" s="136"/>
+      <c r="F29" s="136"/>
+      <c r="G29" s="136"/>
+      <c r="H29" s="136"/>
+      <c r="I29" s="136"/>
+      <c r="J29" s="136"/>
+      <c r="K29" s="136"/>
+      <c r="L29" s="136"/>
+      <c r="M29" s="136"/>
     </row>
     <row r="30" spans="1:13">
-      <c r="A30" s="153"/>
-      <c r="B30" s="153"/>
-      <c r="C30" s="153"/>
-      <c r="D30" s="153"/>
-      <c r="E30" s="153"/>
-      <c r="F30" s="153"/>
-      <c r="G30" s="153"/>
-      <c r="H30" s="153"/>
-      <c r="I30" s="153"/>
-      <c r="J30" s="153"/>
-      <c r="K30" s="153"/>
-      <c r="L30" s="153"/>
-      <c r="M30" s="153"/>
+      <c r="A30" s="136"/>
+      <c r="B30" s="136"/>
+      <c r="C30" s="136"/>
+      <c r="D30" s="136"/>
+      <c r="E30" s="136"/>
+      <c r="F30" s="136"/>
+      <c r="G30" s="136"/>
+      <c r="H30" s="136"/>
+      <c r="I30" s="136"/>
+      <c r="J30" s="136"/>
+      <c r="K30" s="136"/>
+      <c r="L30" s="136"/>
+      <c r="M30" s="136"/>
     </row>
     <row r="31" spans="1:13">
-      <c r="A31" s="153"/>
-      <c r="B31" s="153"/>
-      <c r="C31" s="153"/>
-      <c r="D31" s="153"/>
-      <c r="E31" s="153"/>
-      <c r="F31" s="153"/>
-      <c r="G31" s="153"/>
-      <c r="H31" s="153"/>
-      <c r="I31" s="153"/>
-      <c r="J31" s="153"/>
-      <c r="K31" s="153"/>
-      <c r="L31" s="153"/>
-      <c r="M31" s="153"/>
+      <c r="A31" s="136"/>
+      <c r="B31" s="136"/>
+      <c r="C31" s="136"/>
+      <c r="D31" s="136"/>
+      <c r="E31" s="136"/>
+      <c r="F31" s="136"/>
+      <c r="G31" s="136"/>
+      <c r="H31" s="136"/>
+      <c r="I31" s="136"/>
+      <c r="J31" s="136"/>
+      <c r="K31" s="136"/>
+      <c r="L31" s="136"/>
+      <c r="M31" s="136"/>
     </row>
     <row r="32" spans="1:13">
-      <c r="A32" s="153"/>
-      <c r="B32" s="153"/>
-      <c r="C32" s="153"/>
-      <c r="D32" s="153"/>
-      <c r="E32" s="153"/>
-      <c r="F32" s="153"/>
-      <c r="G32" s="153"/>
-      <c r="H32" s="153"/>
-      <c r="I32" s="153"/>
-      <c r="J32" s="153"/>
-      <c r="K32" s="153"/>
-      <c r="L32" s="153"/>
-      <c r="M32" s="153"/>
+      <c r="A32" s="136"/>
+      <c r="B32" s="136"/>
+      <c r="C32" s="136"/>
+      <c r="D32" s="136"/>
+      <c r="E32" s="136"/>
+      <c r="F32" s="136"/>
+      <c r="G32" s="136"/>
+      <c r="H32" s="136"/>
+      <c r="I32" s="136"/>
+      <c r="J32" s="136"/>
+      <c r="K32" s="136"/>
+      <c r="L32" s="136"/>
+      <c r="M32" s="136"/>
     </row>
     <row r="33" spans="1:13">
-      <c r="A33" s="153"/>
-      <c r="B33" s="153"/>
-      <c r="C33" s="153"/>
-      <c r="D33" s="153"/>
-      <c r="E33" s="153"/>
-      <c r="F33" s="153"/>
-      <c r="G33" s="153"/>
-      <c r="H33" s="153"/>
-      <c r="I33" s="153"/>
-      <c r="J33" s="153"/>
-      <c r="K33" s="153"/>
-      <c r="L33" s="153"/>
-      <c r="M33" s="153"/>
+      <c r="A33" s="136"/>
+      <c r="B33" s="136"/>
+      <c r="C33" s="136"/>
+      <c r="D33" s="136"/>
+      <c r="E33" s="136"/>
+      <c r="F33" s="136"/>
+      <c r="G33" s="136"/>
+      <c r="H33" s="136"/>
+      <c r="I33" s="136"/>
+      <c r="J33" s="136"/>
+      <c r="K33" s="136"/>
+      <c r="L33" s="136"/>
+      <c r="M33" s="136"/>
     </row>
     <row r="34" spans="1:13">
-      <c r="A34" s="153"/>
-      <c r="B34" s="153"/>
-      <c r="C34" s="153"/>
-      <c r="D34" s="153"/>
-      <c r="E34" s="153"/>
-      <c r="F34" s="153"/>
-      <c r="G34" s="153"/>
-      <c r="H34" s="153"/>
-      <c r="I34" s="153"/>
-      <c r="J34" s="153"/>
-      <c r="K34" s="153"/>
-      <c r="L34" s="153"/>
-      <c r="M34" s="153"/>
+      <c r="A34" s="136"/>
+      <c r="B34" s="136"/>
+      <c r="C34" s="136"/>
+      <c r="D34" s="136"/>
+      <c r="E34" s="136"/>
+      <c r="F34" s="136"/>
+      <c r="G34" s="136"/>
+      <c r="H34" s="136"/>
+      <c r="I34" s="136"/>
+      <c r="J34" s="136"/>
+      <c r="K34" s="136"/>
+      <c r="L34" s="136"/>
+      <c r="M34" s="136"/>
     </row>
     <row r="35" spans="1:13">
-      <c r="A35" s="153"/>
-      <c r="B35" s="153"/>
-      <c r="C35" s="153"/>
-      <c r="D35" s="153"/>
-      <c r="E35" s="153"/>
-      <c r="F35" s="153"/>
-      <c r="G35" s="153"/>
-      <c r="H35" s="153"/>
-      <c r="I35" s="153"/>
-      <c r="J35" s="153"/>
-      <c r="K35" s="153"/>
-      <c r="L35" s="153"/>
-      <c r="M35" s="153"/>
+      <c r="A35" s="136"/>
+      <c r="B35" s="136"/>
+      <c r="C35" s="136"/>
+      <c r="D35" s="136"/>
+      <c r="E35" s="136"/>
+      <c r="F35" s="136"/>
+      <c r="G35" s="136"/>
+      <c r="H35" s="136"/>
+      <c r="I35" s="136"/>
+      <c r="J35" s="136"/>
+      <c r="K35" s="136"/>
+      <c r="L35" s="136"/>
+      <c r="M35" s="136"/>
     </row>
     <row r="36" spans="1:13">
-      <c r="A36" s="153"/>
-      <c r="B36" s="153"/>
-      <c r="C36" s="153"/>
-      <c r="D36" s="153"/>
-      <c r="E36" s="153"/>
-      <c r="F36" s="153"/>
-      <c r="G36" s="153"/>
-      <c r="H36" s="153"/>
-      <c r="I36" s="153"/>
-      <c r="J36" s="153"/>
-      <c r="K36" s="153"/>
-      <c r="L36" s="153"/>
-      <c r="M36" s="153"/>
+      <c r="A36" s="136"/>
+      <c r="B36" s="136"/>
+      <c r="C36" s="136"/>
+      <c r="D36" s="136"/>
+      <c r="E36" s="136"/>
+      <c r="F36" s="136"/>
+      <c r="G36" s="136"/>
+      <c r="H36" s="136"/>
+      <c r="I36" s="136"/>
+      <c r="J36" s="136"/>
+      <c r="K36" s="136"/>
+      <c r="L36" s="136"/>
+      <c r="M36" s="136"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A29:M36"/>
-    <mergeCell ref="A7:A10"/>
-    <mergeCell ref="A11:A14"/>
-    <mergeCell ref="A15:A18"/>
-    <mergeCell ref="A19:A22"/>
-    <mergeCell ref="A23:A26"/>
     <mergeCell ref="E1:G1"/>
     <mergeCell ref="H1:J1"/>
     <mergeCell ref="K1:M1"/>
@@ -15299,6 +15385,12 @@
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="D1:D2"/>
+    <mergeCell ref="A29:M36"/>
+    <mergeCell ref="A7:A10"/>
+    <mergeCell ref="A11:A14"/>
+    <mergeCell ref="A15:A18"/>
+    <mergeCell ref="A19:A22"/>
+    <mergeCell ref="A23:A26"/>
   </mergeCells>
   <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
